--- a/Data/MPQ.Digitization.Data.xlsx
+++ b/Data/MPQ.Digitization.Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/GitHub/Bruce_MPQ_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5456E1-32C0-3F4D-9586-0F5AA99F2232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04A872A-C27F-7648-90E4-DB2B110A25CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -607,7 +607,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1095"/>
+  <dimension ref="A1:I1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="A657" sqref="A657:XFD657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19999,20 +19999,32 @@
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E657" t="s">
-        <v>4</v>
+      <c r="A657">
+        <v>2015</v>
+      </c>
+      <c r="B657" t="s">
+        <v>28</v>
+      </c>
+      <c r="C657">
+        <v>19</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>2</v>
       </c>
       <c r="F657" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G657" t="s">
-        <v>6</v>
-      </c>
-      <c r="H657" t="s">
-        <v>7</v>
-      </c>
-      <c r="I657" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H657">
+        <v>0.62161200000000005</v>
+      </c>
+      <c r="I657" s="1">
+        <v>2.1580999999999999E-2</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
@@ -20029,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="E658">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F658" t="s">
         <v>10</v>
@@ -20038,10 +20050,10 @@
         <v>11</v>
       </c>
       <c r="H658">
-        <v>0.62161200000000005</v>
+        <v>0.42010199999999998</v>
       </c>
       <c r="I658" s="1">
-        <v>2.1580999999999999E-2</v>
+        <v>1.1069000000000001E-2</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
@@ -20058,7 +20070,7 @@
         <v>1</v>
       </c>
       <c r="E659">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F659" t="s">
         <v>10</v>
@@ -20067,10 +20079,10 @@
         <v>11</v>
       </c>
       <c r="H659">
-        <v>0.42010199999999998</v>
+        <v>0.130438</v>
       </c>
       <c r="I659" s="1">
-        <v>1.1069000000000001E-2</v>
+        <v>1.0629999999999999E-3</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
@@ -20087,7 +20099,7 @@
         <v>1</v>
       </c>
       <c r="E660">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F660" t="s">
         <v>10</v>
@@ -20096,10 +20108,10 @@
         <v>11</v>
       </c>
       <c r="H660">
-        <v>0.130438</v>
+        <v>0.51435900000000001</v>
       </c>
       <c r="I660" s="1">
-        <v>1.0629999999999999E-3</v>
+        <v>7.5570000000000003E-3</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
@@ -20116,7 +20128,7 @@
         <v>1</v>
       </c>
       <c r="E661">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F661" t="s">
         <v>10</v>
@@ -20125,10 +20137,10 @@
         <v>11</v>
       </c>
       <c r="H661">
-        <v>0.51435900000000001</v>
+        <v>0.46368799999999999</v>
       </c>
       <c r="I661" s="1">
-        <v>7.5570000000000003E-3</v>
+        <v>1.3849999999999999E-2</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
@@ -20145,7 +20157,7 @@
         <v>1</v>
       </c>
       <c r="E662">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F662" t="s">
         <v>10</v>
@@ -20154,10 +20166,10 @@
         <v>11</v>
       </c>
       <c r="H662">
-        <v>0.46368799999999999</v>
+        <v>0.76408299999999996</v>
       </c>
       <c r="I662" s="1">
-        <v>1.3849999999999999E-2</v>
+        <v>3.0478000000000002E-2</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
@@ -20174,7 +20186,7 @@
         <v>1</v>
       </c>
       <c r="E663">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F663" t="s">
         <v>10</v>
@@ -20183,10 +20195,10 @@
         <v>11</v>
       </c>
       <c r="H663">
-        <v>0.76408299999999996</v>
+        <v>0.86913399999999996</v>
       </c>
       <c r="I663" s="1">
-        <v>3.0478000000000002E-2</v>
+        <v>4.8368000000000001E-2</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
@@ -20203,7 +20215,7 @@
         <v>1</v>
       </c>
       <c r="E664">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F664" t="s">
         <v>10</v>
@@ -20212,10 +20224,10 @@
         <v>11</v>
       </c>
       <c r="H664">
-        <v>0.86913399999999996</v>
+        <v>0.35189799999999999</v>
       </c>
       <c r="I664" s="1">
-        <v>4.8368000000000001E-2</v>
+        <v>8.1250000000000003E-3</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
@@ -20232,7 +20244,7 @@
         <v>1</v>
       </c>
       <c r="E665">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F665" t="s">
         <v>10</v>
@@ -20241,10 +20253,10 @@
         <v>11</v>
       </c>
       <c r="H665">
-        <v>0.35189799999999999</v>
+        <v>1.243846</v>
       </c>
       <c r="I665" s="1">
-        <v>8.1250000000000003E-3</v>
+        <v>5.4185999999999998E-2</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
@@ -20261,7 +20273,7 @@
         <v>1</v>
       </c>
       <c r="E666">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F666" t="s">
         <v>10</v>
@@ -20270,10 +20282,10 @@
         <v>11</v>
       </c>
       <c r="H666">
-        <v>1.243846</v>
+        <v>0.489093</v>
       </c>
       <c r="I666" s="1">
-        <v>5.4185999999999998E-2</v>
+        <v>1.2874999999999999E-2</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
@@ -20290,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="E667">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F667" t="s">
         <v>10</v>
@@ -20299,10 +20311,10 @@
         <v>11</v>
       </c>
       <c r="H667">
-        <v>0.489093</v>
+        <v>0.247922</v>
       </c>
       <c r="I667" s="1">
-        <v>1.2874999999999999E-2</v>
+        <v>4.3280000000000002E-3</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
@@ -20319,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="E668">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F668" t="s">
         <v>10</v>
@@ -20328,10 +20340,10 @@
         <v>11</v>
       </c>
       <c r="H668">
-        <v>0.247922</v>
+        <v>0.50924700000000001</v>
       </c>
       <c r="I668" s="1">
-        <v>4.3280000000000002E-3</v>
+        <v>1.967E-2</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
@@ -20348,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="E669">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F669" t="s">
         <v>10</v>
@@ -20357,10 +20369,10 @@
         <v>11</v>
       </c>
       <c r="H669">
-        <v>0.50924700000000001</v>
+        <v>0.190995</v>
       </c>
       <c r="I669" s="1">
-        <v>1.967E-2</v>
+        <v>2.6410000000000001E-3</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
@@ -20377,7 +20389,7 @@
         <v>1</v>
       </c>
       <c r="E670">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F670" t="s">
         <v>10</v>
@@ -20386,10 +20398,10 @@
         <v>11</v>
       </c>
       <c r="H670">
-        <v>0.190995</v>
+        <v>0.23594699999999999</v>
       </c>
       <c r="I670" s="1">
-        <v>2.6410000000000001E-3</v>
+        <v>2.7269999999999998E-3</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
@@ -20406,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="E671">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F671" t="s">
         <v>10</v>
@@ -20415,10 +20427,10 @@
         <v>11</v>
       </c>
       <c r="H671">
-        <v>0.23594699999999999</v>
+        <v>0.22078300000000001</v>
       </c>
       <c r="I671" s="1">
-        <v>2.7269999999999998E-3</v>
+        <v>3.0460000000000001E-3</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
@@ -20435,7 +20447,7 @@
         <v>1</v>
       </c>
       <c r="E672">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F672" t="s">
         <v>10</v>
@@ -20444,10 +20456,10 @@
         <v>11</v>
       </c>
       <c r="H672">
-        <v>0.22078300000000001</v>
+        <v>0.89038300000000004</v>
       </c>
       <c r="I672" s="1">
-        <v>3.0460000000000001E-3</v>
+        <v>3.8503999999999997E-2</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
@@ -20464,7 +20476,7 @@
         <v>1</v>
       </c>
       <c r="E673">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F673" t="s">
         <v>10</v>
@@ -20473,10 +20485,10 @@
         <v>11</v>
       </c>
       <c r="H673">
-        <v>0.89038300000000004</v>
+        <v>0.73090599999999994</v>
       </c>
       <c r="I673" s="1">
-        <v>3.8503999999999997E-2</v>
+        <v>1.6448000000000001E-2</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
@@ -20493,7 +20505,7 @@
         <v>1</v>
       </c>
       <c r="E674">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F674" t="s">
         <v>10</v>
@@ -20502,10 +20514,10 @@
         <v>11</v>
       </c>
       <c r="H674">
-        <v>0.73090599999999994</v>
+        <v>0.20591000000000001</v>
       </c>
       <c r="I674" s="1">
-        <v>1.6448000000000001E-2</v>
+        <v>2.0339999999999998E-3</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
@@ -20522,7 +20534,7 @@
         <v>1</v>
       </c>
       <c r="E675">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F675" t="s">
         <v>10</v>
@@ -20531,10 +20543,10 @@
         <v>11</v>
       </c>
       <c r="H675">
-        <v>0.20591000000000001</v>
+        <v>0.265017</v>
       </c>
       <c r="I675" s="1">
-        <v>2.0339999999999998E-3</v>
+        <v>4.2560000000000002E-3</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
@@ -20551,7 +20563,7 @@
         <v>1</v>
       </c>
       <c r="E676">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F676" t="s">
         <v>10</v>
@@ -20560,10 +20572,10 @@
         <v>11</v>
       </c>
       <c r="H676">
-        <v>0.265017</v>
+        <v>1.9161570000000001</v>
       </c>
       <c r="I676" s="1">
-        <v>4.2560000000000002E-3</v>
+        <v>0.109374</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
@@ -20580,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="E677">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F677" t="s">
         <v>10</v>
@@ -20589,10 +20601,10 @@
         <v>11</v>
       </c>
       <c r="H677">
-        <v>1.9161570000000001</v>
+        <v>0.67876899999999996</v>
       </c>
       <c r="I677" s="1">
-        <v>0.109374</v>
+        <v>2.0081000000000002E-2</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
@@ -20609,7 +20621,7 @@
         <v>1</v>
       </c>
       <c r="E678">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F678" t="s">
         <v>10</v>
@@ -20618,10 +20630,10 @@
         <v>11</v>
       </c>
       <c r="H678">
-        <v>0.67876899999999996</v>
+        <v>0.12568199999999999</v>
       </c>
       <c r="I678" s="1">
-        <v>2.0081000000000002E-2</v>
+        <v>4.84E-4</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
@@ -20638,7 +20650,7 @@
         <v>1</v>
       </c>
       <c r="E679">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F679" t="s">
         <v>10</v>
@@ -20647,10 +20659,10 @@
         <v>11</v>
       </c>
       <c r="H679">
-        <v>0.12568199999999999</v>
+        <v>1.1277839999999999</v>
       </c>
       <c r="I679" s="1">
-        <v>4.84E-4</v>
+        <v>7.9452999999999996E-2</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
@@ -20667,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="E680">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F680" t="s">
         <v>10</v>
@@ -20676,10 +20688,10 @@
         <v>11</v>
       </c>
       <c r="H680">
-        <v>1.1277839999999999</v>
+        <v>1.295347</v>
       </c>
       <c r="I680" s="1">
-        <v>7.9452999999999996E-2</v>
+        <v>4.9202999999999997E-2</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
@@ -20696,7 +20708,7 @@
         <v>1</v>
       </c>
       <c r="E681">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F681" t="s">
         <v>10</v>
@@ -20705,10 +20717,10 @@
         <v>11</v>
       </c>
       <c r="H681">
-        <v>1.295347</v>
+        <v>0.88203600000000004</v>
       </c>
       <c r="I681" s="1">
-        <v>4.9202999999999997E-2</v>
+        <v>4.7510999999999998E-2</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
@@ -20725,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="E682">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F682" t="s">
         <v>10</v>
@@ -20734,10 +20746,10 @@
         <v>11</v>
       </c>
       <c r="H682">
-        <v>0.88203600000000004</v>
+        <v>0.50316399999999994</v>
       </c>
       <c r="I682" s="1">
-        <v>4.7510999999999998E-2</v>
+        <v>9.8890000000000002E-3</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
@@ -20754,7 +20766,7 @@
         <v>1</v>
       </c>
       <c r="E683">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F683" t="s">
         <v>10</v>
@@ -20763,10 +20775,10 @@
         <v>11</v>
       </c>
       <c r="H683">
-        <v>0.50316399999999994</v>
+        <v>1.2715860000000001</v>
       </c>
       <c r="I683" s="1">
-        <v>9.8890000000000002E-3</v>
+        <v>6.6611000000000004E-2</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
@@ -20783,7 +20795,7 @@
         <v>1</v>
       </c>
       <c r="E684">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F684" t="s">
         <v>10</v>
@@ -20792,10 +20804,10 @@
         <v>11</v>
       </c>
       <c r="H684">
-        <v>1.2715860000000001</v>
+        <v>0.48277599999999998</v>
       </c>
       <c r="I684" s="1">
-        <v>6.6611000000000004E-2</v>
+        <v>4.9750000000000003E-3</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
@@ -20812,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="E685">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F685" t="s">
         <v>10</v>
@@ -20821,10 +20833,10 @@
         <v>11</v>
       </c>
       <c r="H685">
-        <v>0.48277599999999998</v>
+        <v>0.72938700000000001</v>
       </c>
       <c r="I685" s="1">
-        <v>4.9750000000000003E-3</v>
+        <v>4.0451000000000001E-2</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
@@ -20841,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="E686">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F686" t="s">
         <v>10</v>
@@ -20850,10 +20862,10 @@
         <v>11</v>
       </c>
       <c r="H686">
-        <v>0.72938700000000001</v>
+        <v>0.50386500000000001</v>
       </c>
       <c r="I686" s="1">
-        <v>4.0451000000000001E-2</v>
+        <v>9.2849999999999999E-3</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
@@ -20870,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="E687">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F687" t="s">
         <v>10</v>
@@ -20879,10 +20891,10 @@
         <v>11</v>
       </c>
       <c r="H687">
-        <v>0.50386500000000001</v>
+        <v>0.387297</v>
       </c>
       <c r="I687" s="1">
-        <v>9.2849999999999999E-3</v>
+        <v>5.156E-3</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
@@ -20899,7 +20911,7 @@
         <v>1</v>
       </c>
       <c r="E688">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F688" t="s">
         <v>10</v>
@@ -20908,10 +20920,10 @@
         <v>11</v>
       </c>
       <c r="H688">
-        <v>0.387297</v>
+        <v>0.66918200000000005</v>
       </c>
       <c r="I688" s="1">
-        <v>5.156E-3</v>
+        <v>2.0202000000000001E-2</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
@@ -20928,7 +20940,7 @@
         <v>1</v>
       </c>
       <c r="E689">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F689" t="s">
         <v>10</v>
@@ -20937,10 +20949,10 @@
         <v>11</v>
       </c>
       <c r="H689">
-        <v>0.66918200000000005</v>
+        <v>0.39031300000000002</v>
       </c>
       <c r="I689" s="1">
-        <v>2.0202000000000001E-2</v>
+        <v>8.4329999999999995E-3</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
@@ -20957,7 +20969,7 @@
         <v>1</v>
       </c>
       <c r="E690">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F690" t="s">
         <v>10</v>
@@ -20966,10 +20978,10 @@
         <v>11</v>
       </c>
       <c r="H690">
-        <v>0.39031300000000002</v>
+        <v>0.38362099999999999</v>
       </c>
       <c r="I690" s="1">
-        <v>8.4329999999999995E-3</v>
+        <v>6.8349999999999999E-3</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
@@ -20986,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="E691">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F691" t="s">
         <v>10</v>
@@ -20995,10 +21007,10 @@
         <v>11</v>
       </c>
       <c r="H691">
-        <v>0.38362099999999999</v>
+        <v>0.24176900000000001</v>
       </c>
       <c r="I691" s="1">
-        <v>6.8349999999999999E-3</v>
+        <v>4.0720000000000001E-3</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
@@ -21015,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="E692">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F692" t="s">
         <v>10</v>
@@ -21024,10 +21036,10 @@
         <v>11</v>
       </c>
       <c r="H692">
-        <v>0.24176900000000001</v>
+        <v>3.4169290000000001</v>
       </c>
       <c r="I692" s="1">
-        <v>4.0720000000000001E-3</v>
+        <v>0.208455</v>
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
@@ -21044,7 +21056,7 @@
         <v>1</v>
       </c>
       <c r="E693">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F693" t="s">
         <v>10</v>
@@ -21053,10 +21065,10 @@
         <v>11</v>
       </c>
       <c r="H693">
-        <v>3.4169290000000001</v>
+        <v>0.98809000000000002</v>
       </c>
       <c r="I693" s="1">
-        <v>0.208455</v>
+        <v>5.4654000000000001E-2</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
@@ -21073,7 +21085,7 @@
         <v>1</v>
       </c>
       <c r="E694">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F694" t="s">
         <v>10</v>
@@ -21082,10 +21094,10 @@
         <v>11</v>
       </c>
       <c r="H694">
-        <v>0.98809000000000002</v>
+        <v>0.57892600000000005</v>
       </c>
       <c r="I694" s="1">
-        <v>5.4654000000000001E-2</v>
+        <v>1.8890000000000001E-2</v>
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
@@ -21102,7 +21114,7 @@
         <v>1</v>
       </c>
       <c r="E695">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F695" t="s">
         <v>10</v>
@@ -21111,10 +21123,10 @@
         <v>11</v>
       </c>
       <c r="H695">
-        <v>0.57892600000000005</v>
+        <v>0.654949</v>
       </c>
       <c r="I695" s="1">
-        <v>1.8890000000000001E-2</v>
+        <v>3.0735999999999999E-2</v>
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
@@ -21131,7 +21143,7 @@
         <v>1</v>
       </c>
       <c r="E696">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F696" t="s">
         <v>10</v>
@@ -21140,10 +21152,10 @@
         <v>11</v>
       </c>
       <c r="H696">
-        <v>0.654949</v>
+        <v>0.52615100000000004</v>
       </c>
       <c r="I696" s="1">
-        <v>3.0735999999999999E-2</v>
+        <v>8.3809999999999996E-3</v>
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
@@ -21160,7 +21172,7 @@
         <v>1</v>
       </c>
       <c r="E697">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F697" t="s">
         <v>10</v>
@@ -21169,10 +21181,10 @@
         <v>11</v>
       </c>
       <c r="H697">
-        <v>0.52615100000000004</v>
+        <v>0.637096</v>
       </c>
       <c r="I697" s="1">
-        <v>8.3809999999999996E-3</v>
+        <v>1.7573999999999999E-2</v>
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
@@ -21189,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="E698">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F698" t="s">
         <v>10</v>
@@ -21198,10 +21210,10 @@
         <v>11</v>
       </c>
       <c r="H698">
-        <v>0.637096</v>
+        <v>0.87082400000000004</v>
       </c>
       <c r="I698" s="1">
-        <v>1.7573999999999999E-2</v>
+        <v>4.6767999999999997E-2</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
@@ -21218,7 +21230,7 @@
         <v>1</v>
       </c>
       <c r="E699">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F699" t="s">
         <v>10</v>
@@ -21227,10 +21239,10 @@
         <v>11</v>
       </c>
       <c r="H699">
-        <v>0.87082400000000004</v>
+        <v>1.020799</v>
       </c>
       <c r="I699" s="1">
-        <v>4.6767999999999997E-2</v>
+        <v>3.8598E-2</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.2">
@@ -21247,7 +21259,7 @@
         <v>1</v>
       </c>
       <c r="E700">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F700" t="s">
         <v>10</v>
@@ -21256,10 +21268,10 @@
         <v>11</v>
       </c>
       <c r="H700">
-        <v>1.020799</v>
+        <v>0.29078799999999999</v>
       </c>
       <c r="I700" s="1">
-        <v>3.8598E-2</v>
+        <v>4.4190000000000002E-3</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.2">
@@ -21276,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="E701">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F701" t="s">
         <v>10</v>
@@ -21285,10 +21297,10 @@
         <v>11</v>
       </c>
       <c r="H701">
-        <v>0.29078799999999999</v>
+        <v>0.73127699999999995</v>
       </c>
       <c r="I701" s="1">
-        <v>4.4190000000000002E-3</v>
+        <v>1.4896E-2</v>
       </c>
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.2">
@@ -21305,7 +21317,7 @@
         <v>1</v>
       </c>
       <c r="E702">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F702" t="s">
         <v>10</v>
@@ -21314,10 +21326,10 @@
         <v>11</v>
       </c>
       <c r="H702">
-        <v>0.73127699999999995</v>
+        <v>0.758853</v>
       </c>
       <c r="I702" s="1">
-        <v>1.4896E-2</v>
+        <v>3.7388999999999999E-2</v>
       </c>
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.2">
@@ -21334,7 +21346,7 @@
         <v>1</v>
       </c>
       <c r="E703">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F703" t="s">
         <v>10</v>
@@ -21343,10 +21355,10 @@
         <v>11</v>
       </c>
       <c r="H703">
-        <v>0.758853</v>
+        <v>0.36088300000000001</v>
       </c>
       <c r="I703" s="1">
-        <v>3.7388999999999999E-2</v>
+        <v>9.3170000000000006E-3</v>
       </c>
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.2">
@@ -21363,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="E704">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F704" t="s">
         <v>10</v>
@@ -21372,10 +21384,10 @@
         <v>11</v>
       </c>
       <c r="H704">
-        <v>0.36088300000000001</v>
+        <v>1.1026290000000001</v>
       </c>
       <c r="I704" s="1">
-        <v>9.3170000000000006E-3</v>
+        <v>4.8600999999999998E-2</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.2">
@@ -21392,7 +21404,7 @@
         <v>1</v>
       </c>
       <c r="E705">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F705" t="s">
         <v>10</v>
@@ -21401,10 +21413,10 @@
         <v>11</v>
       </c>
       <c r="H705">
-        <v>1.1026290000000001</v>
+        <v>0.214754</v>
       </c>
       <c r="I705" s="1">
-        <v>4.8600999999999998E-2</v>
+        <v>2.0830000000000002E-3</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.2">
@@ -21421,7 +21433,7 @@
         <v>1</v>
       </c>
       <c r="E706">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F706" t="s">
         <v>10</v>
@@ -21430,10 +21442,10 @@
         <v>11</v>
       </c>
       <c r="H706">
-        <v>0.214754</v>
+        <v>0.61904099999999995</v>
       </c>
       <c r="I706" s="1">
-        <v>2.0830000000000002E-3</v>
+        <v>1.7218000000000001E-2</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.2">
@@ -21450,7 +21462,7 @@
         <v>1</v>
       </c>
       <c r="E707">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F707" t="s">
         <v>10</v>
@@ -21459,10 +21471,10 @@
         <v>11</v>
       </c>
       <c r="H707">
-        <v>0.61904099999999995</v>
+        <v>0.390926</v>
       </c>
       <c r="I707" s="1">
-        <v>1.7218000000000001E-2</v>
+        <v>9.6670000000000002E-3</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.2">
@@ -21479,7 +21491,7 @@
         <v>1</v>
       </c>
       <c r="E708">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F708" t="s">
         <v>10</v>
@@ -21488,10 +21500,10 @@
         <v>11</v>
       </c>
       <c r="H708">
-        <v>0.390926</v>
+        <v>0.42588599999999999</v>
       </c>
       <c r="I708" s="1">
-        <v>9.6670000000000002E-3</v>
+        <v>8.7060000000000002E-3</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.2">
@@ -21508,7 +21520,7 @@
         <v>1</v>
       </c>
       <c r="E709">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F709" t="s">
         <v>10</v>
@@ -21517,10 +21529,10 @@
         <v>11</v>
       </c>
       <c r="H709">
-        <v>0.42588599999999999</v>
+        <v>0.63740200000000002</v>
       </c>
       <c r="I709" s="1">
-        <v>8.7060000000000002E-3</v>
+        <v>1.8192E-2</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.2">
@@ -21537,7 +21549,7 @@
         <v>1</v>
       </c>
       <c r="E710">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F710" t="s">
         <v>10</v>
@@ -21546,10 +21558,10 @@
         <v>11</v>
       </c>
       <c r="H710">
-        <v>0.63740200000000002</v>
+        <v>0.19178100000000001</v>
       </c>
       <c r="I710" s="1">
-        <v>1.8192E-2</v>
+        <v>2.2209999999999999E-3</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.2">
@@ -21566,7 +21578,7 @@
         <v>1</v>
       </c>
       <c r="E711">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F711" t="s">
         <v>10</v>
@@ -21575,10 +21587,10 @@
         <v>11</v>
       </c>
       <c r="H711">
-        <v>0.19178100000000001</v>
+        <v>0.41044900000000001</v>
       </c>
       <c r="I711" s="1">
-        <v>2.2209999999999999E-3</v>
+        <v>5.9899999999999997E-3</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.2">
@@ -21595,7 +21607,7 @@
         <v>1</v>
       </c>
       <c r="E712">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F712" t="s">
         <v>10</v>
@@ -21604,10 +21616,10 @@
         <v>11</v>
       </c>
       <c r="H712">
-        <v>0.41044900000000001</v>
+        <v>0.37446299999999999</v>
       </c>
       <c r="I712" s="1">
-        <v>5.9899999999999997E-3</v>
+        <v>8.2400000000000008E-3</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.2">
@@ -21624,7 +21636,7 @@
         <v>1</v>
       </c>
       <c r="E713">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F713" t="s">
         <v>10</v>
@@ -21633,10 +21645,10 @@
         <v>11</v>
       </c>
       <c r="H713">
-        <v>0.37446299999999999</v>
+        <v>0.43262200000000001</v>
       </c>
       <c r="I713" s="1">
-        <v>8.2400000000000008E-3</v>
+        <v>1.1069000000000001E-2</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.2">
@@ -21653,7 +21665,7 @@
         <v>1</v>
       </c>
       <c r="E714">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F714" t="s">
         <v>10</v>
@@ -21662,10 +21674,10 @@
         <v>11</v>
       </c>
       <c r="H714">
-        <v>0.43262200000000001</v>
+        <v>0.47180100000000003</v>
       </c>
       <c r="I714" s="1">
-        <v>1.1069000000000001E-2</v>
+        <v>1.1372999999999999E-2</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.2">
@@ -21682,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="E715">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F715" t="s">
         <v>10</v>
@@ -21691,10 +21703,10 @@
         <v>11</v>
       </c>
       <c r="H715">
-        <v>0.47180100000000003</v>
+        <v>0.40161400000000003</v>
       </c>
       <c r="I715" s="1">
-        <v>1.1372999999999999E-2</v>
+        <v>9.5580000000000005E-3</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
@@ -21711,7 +21723,7 @@
         <v>1</v>
       </c>
       <c r="E716">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F716" t="s">
         <v>10</v>
@@ -21720,10 +21732,10 @@
         <v>11</v>
       </c>
       <c r="H716">
-        <v>0.40161400000000003</v>
+        <v>0.94614299999999996</v>
       </c>
       <c r="I716" s="1">
-        <v>9.5580000000000005E-3</v>
+        <v>3.7224E-2</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.2">
@@ -21740,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="E717">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F717" t="s">
         <v>10</v>
@@ -21749,10 +21761,10 @@
         <v>11</v>
       </c>
       <c r="H717">
-        <v>0.94614299999999996</v>
+        <v>1.4634590000000001</v>
       </c>
       <c r="I717" s="1">
-        <v>3.7224E-2</v>
+        <v>7.1819999999999995E-2</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.2">
@@ -21769,7 +21781,7 @@
         <v>1</v>
       </c>
       <c r="E718">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F718" t="s">
         <v>10</v>
@@ -21778,10 +21790,10 @@
         <v>11</v>
       </c>
       <c r="H718">
-        <v>1.4634590000000001</v>
+        <v>1.1592579999999999</v>
       </c>
       <c r="I718" s="1">
-        <v>7.1819999999999995E-2</v>
+        <v>2.7112000000000001E-2</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.2">
@@ -21798,7 +21810,7 @@
         <v>1</v>
       </c>
       <c r="E719">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F719" t="s">
         <v>10</v>
@@ -21807,10 +21819,10 @@
         <v>11</v>
       </c>
       <c r="H719">
-        <v>1.1592579999999999</v>
+        <v>0.80704699999999996</v>
       </c>
       <c r="I719" s="1">
-        <v>2.7112000000000001E-2</v>
+        <v>1.8275E-2</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.2">
@@ -21827,7 +21839,7 @@
         <v>1</v>
       </c>
       <c r="E720">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F720" t="s">
         <v>10</v>
@@ -21836,10 +21848,10 @@
         <v>11</v>
       </c>
       <c r="H720">
-        <v>0.80704699999999996</v>
+        <v>9.3765000000000001E-2</v>
       </c>
       <c r="I720" s="1">
-        <v>1.8275E-2</v>
+        <v>4.3300000000000001E-4</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.2">
@@ -21856,7 +21868,7 @@
         <v>1</v>
       </c>
       <c r="E721">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F721" t="s">
         <v>10</v>
@@ -21865,10 +21877,10 @@
         <v>11</v>
       </c>
       <c r="H721">
-        <v>9.3765000000000001E-2</v>
+        <v>0.575631</v>
       </c>
       <c r="I721" s="1">
-        <v>4.3300000000000001E-4</v>
+        <v>1.0527E-2</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.2">
@@ -21885,7 +21897,7 @@
         <v>1</v>
       </c>
       <c r="E722">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F722" t="s">
         <v>10</v>
@@ -21894,10 +21906,10 @@
         <v>11</v>
       </c>
       <c r="H722">
-        <v>0.575631</v>
+        <v>0.191361</v>
       </c>
       <c r="I722" s="1">
-        <v>1.0527E-2</v>
+        <v>1.727E-3</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.2">
@@ -21914,7 +21926,7 @@
         <v>1</v>
       </c>
       <c r="E723">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F723" t="s">
         <v>10</v>
@@ -21923,10 +21935,10 @@
         <v>11</v>
       </c>
       <c r="H723">
-        <v>0.191361</v>
+        <v>0.68408800000000003</v>
       </c>
       <c r="I723" s="1">
-        <v>1.727E-3</v>
+        <v>2.8937999999999998E-2</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.2">
@@ -21943,7 +21955,7 @@
         <v>1</v>
       </c>
       <c r="E724">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F724" t="s">
         <v>10</v>
@@ -21952,10 +21964,10 @@
         <v>11</v>
       </c>
       <c r="H724">
-        <v>0.68408800000000003</v>
+        <v>0.37074200000000002</v>
       </c>
       <c r="I724" s="1">
-        <v>2.8937999999999998E-2</v>
+        <v>7.8619999999999992E-3</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.2">
@@ -21972,7 +21984,7 @@
         <v>1</v>
       </c>
       <c r="E725">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F725" t="s">
         <v>10</v>
@@ -21981,10 +21993,10 @@
         <v>11</v>
       </c>
       <c r="H725">
-        <v>0.37074200000000002</v>
+        <v>0.794875</v>
       </c>
       <c r="I725" s="1">
-        <v>7.8619999999999992E-3</v>
+        <v>2.4400000000000002E-2</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.2">
@@ -22001,7 +22013,7 @@
         <v>1</v>
       </c>
       <c r="E726">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F726" t="s">
         <v>10</v>
@@ -22010,10 +22022,10 @@
         <v>11</v>
       </c>
       <c r="H726">
-        <v>0.794875</v>
+        <v>1.75508</v>
       </c>
       <c r="I726" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>0.109248</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.2">
@@ -22030,7 +22042,7 @@
         <v>1</v>
       </c>
       <c r="E727">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F727" t="s">
         <v>10</v>
@@ -22039,10 +22051,10 @@
         <v>11</v>
       </c>
       <c r="H727">
-        <v>1.75508</v>
+        <v>0.52483800000000003</v>
       </c>
       <c r="I727" s="1">
-        <v>0.109248</v>
+        <v>2.0052E-2</v>
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.2">
@@ -22059,7 +22071,7 @@
         <v>1</v>
       </c>
       <c r="E728">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F728" t="s">
         <v>10</v>
@@ -22068,10 +22080,10 @@
         <v>11</v>
       </c>
       <c r="H728">
-        <v>0.52483800000000003</v>
+        <v>0.35128300000000001</v>
       </c>
       <c r="I728" s="1">
-        <v>2.0052E-2</v>
+        <v>8.6610000000000003E-3</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.2">
@@ -22088,7 +22100,7 @@
         <v>1</v>
       </c>
       <c r="E729">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F729" t="s">
         <v>10</v>
@@ -22097,10 +22109,10 @@
         <v>11</v>
       </c>
       <c r="H729">
-        <v>0.35128300000000001</v>
+        <v>0.253722</v>
       </c>
       <c r="I729" s="1">
-        <v>8.6610000000000003E-3</v>
+        <v>1.8489999999999999E-3</v>
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.2">
@@ -22117,7 +22129,7 @@
         <v>1</v>
       </c>
       <c r="E730">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F730" t="s">
         <v>10</v>
@@ -22126,10 +22138,10 @@
         <v>11</v>
       </c>
       <c r="H730">
-        <v>0.253722</v>
+        <v>0.26215100000000002</v>
       </c>
       <c r="I730" s="1">
-        <v>1.8489999999999999E-3</v>
+        <v>4.4920000000000003E-3</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.2">
@@ -22146,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="E731">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F731" t="s">
         <v>10</v>
@@ -22155,10 +22167,10 @@
         <v>11</v>
       </c>
       <c r="H731">
-        <v>0.26215100000000002</v>
+        <v>0.44966600000000001</v>
       </c>
       <c r="I731" s="1">
-        <v>4.4920000000000003E-3</v>
+        <v>7.3070000000000001E-3</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.2">
@@ -22175,7 +22187,7 @@
         <v>1</v>
       </c>
       <c r="E732">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F732" t="s">
         <v>10</v>
@@ -22184,10 +22196,10 @@
         <v>11</v>
       </c>
       <c r="H732">
-        <v>0.44966600000000001</v>
+        <v>1.139635</v>
       </c>
       <c r="I732" s="1">
-        <v>7.3070000000000001E-3</v>
+        <v>6.2137999999999999E-2</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.2">
@@ -22204,7 +22216,7 @@
         <v>1</v>
       </c>
       <c r="E733">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F733" t="s">
         <v>10</v>
@@ -22213,10 +22225,10 @@
         <v>11</v>
       </c>
       <c r="H733">
-        <v>1.139635</v>
+        <v>0.25935900000000001</v>
       </c>
       <c r="I733" s="1">
-        <v>6.2137999999999999E-2</v>
+        <v>3.4320000000000002E-3</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.2">
@@ -22233,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="E734">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F734" t="s">
         <v>10</v>
@@ -22242,10 +22254,10 @@
         <v>11</v>
       </c>
       <c r="H734">
-        <v>0.25935900000000001</v>
+        <v>1.181654</v>
       </c>
       <c r="I734" s="1">
-        <v>3.4320000000000002E-3</v>
+        <v>6.6989999999999994E-2</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.2">
@@ -22262,7 +22274,7 @@
         <v>1</v>
       </c>
       <c r="E735">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F735" t="s">
         <v>10</v>
@@ -22271,10 +22283,10 @@
         <v>11</v>
       </c>
       <c r="H735">
-        <v>1.181654</v>
+        <v>1.3088839999999999</v>
       </c>
       <c r="I735" s="1">
-        <v>6.6989999999999994E-2</v>
+        <v>4.2233E-2</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.2">
@@ -22291,7 +22303,7 @@
         <v>1</v>
       </c>
       <c r="E736">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F736" t="s">
         <v>10</v>
@@ -22300,10 +22312,10 @@
         <v>11</v>
       </c>
       <c r="H736">
-        <v>1.3088839999999999</v>
+        <v>0.277895</v>
       </c>
       <c r="I736" s="1">
-        <v>4.2233E-2</v>
+        <v>3.2829999999999999E-3</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.2">
@@ -22320,7 +22332,7 @@
         <v>1</v>
       </c>
       <c r="E737">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F737" t="s">
         <v>10</v>
@@ -22329,10 +22341,10 @@
         <v>11</v>
       </c>
       <c r="H737">
-        <v>0.277895</v>
+        <v>0.20494999999999999</v>
       </c>
       <c r="I737" s="1">
-        <v>3.2829999999999999E-3</v>
+        <v>2.7330000000000002E-3</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.2">
@@ -22349,7 +22361,7 @@
         <v>1</v>
       </c>
       <c r="E738">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F738" t="s">
         <v>10</v>
@@ -22358,10 +22370,10 @@
         <v>11</v>
       </c>
       <c r="H738">
-        <v>0.20494999999999999</v>
+        <v>0.199069</v>
       </c>
       <c r="I738" s="1">
-        <v>2.7330000000000002E-3</v>
+        <v>2.63E-3</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.2">
@@ -22378,7 +22390,7 @@
         <v>1</v>
       </c>
       <c r="E739">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F739" t="s">
         <v>10</v>
@@ -22387,10 +22399,10 @@
         <v>11</v>
       </c>
       <c r="H739">
-        <v>0.199069</v>
+        <v>0.61817100000000003</v>
       </c>
       <c r="I739" s="1">
-        <v>2.63E-3</v>
+        <v>2.1037E-2</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.2">
@@ -22407,7 +22419,7 @@
         <v>1</v>
       </c>
       <c r="E740">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F740" t="s">
         <v>10</v>
@@ -22416,10 +22428,10 @@
         <v>11</v>
       </c>
       <c r="H740">
-        <v>0.61817100000000003</v>
+        <v>0.79460799999999998</v>
       </c>
       <c r="I740" s="1">
-        <v>2.1037E-2</v>
+        <v>1.8790000000000001E-2</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.2">
@@ -22436,7 +22448,7 @@
         <v>1</v>
       </c>
       <c r="E741">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F741" t="s">
         <v>10</v>
@@ -22445,10 +22457,10 @@
         <v>11</v>
       </c>
       <c r="H741">
-        <v>0.79460799999999998</v>
+        <v>0.18449099999999999</v>
       </c>
       <c r="I741" s="1">
-        <v>1.8790000000000001E-2</v>
+        <v>2.0209999999999998E-3</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.2">
@@ -22465,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="E742">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F742" t="s">
         <v>10</v>
@@ -22474,10 +22486,10 @@
         <v>11</v>
       </c>
       <c r="H742">
-        <v>0.18449099999999999</v>
+        <v>0.930033</v>
       </c>
       <c r="I742" s="1">
-        <v>2.0209999999999998E-3</v>
+        <v>4.4882999999999999E-2</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.2">
@@ -22494,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="E743">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F743" t="s">
         <v>10</v>
@@ -22503,10 +22515,10 @@
         <v>11</v>
       </c>
       <c r="H743">
-        <v>0.930033</v>
+        <v>0.86628300000000003</v>
       </c>
       <c r="I743" s="1">
-        <v>4.4882999999999999E-2</v>
+        <v>4.3184E-2</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.2">
@@ -22523,7 +22535,7 @@
         <v>1</v>
       </c>
       <c r="E744">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F744" t="s">
         <v>10</v>
@@ -22532,10 +22544,10 @@
         <v>11</v>
       </c>
       <c r="H744">
-        <v>0.86628300000000003</v>
+        <v>2.0613429999999999</v>
       </c>
       <c r="I744" s="1">
-        <v>4.3184E-2</v>
+        <v>0.14555599999999999</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.2">
@@ -22552,7 +22564,7 @@
         <v>1</v>
       </c>
       <c r="E745">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F745" t="s">
         <v>10</v>
@@ -22561,10 +22573,10 @@
         <v>11</v>
       </c>
       <c r="H745">
-        <v>2.0613429999999999</v>
+        <v>0.19493199999999999</v>
       </c>
       <c r="I745" s="1">
-        <v>0.14555599999999999</v>
+        <v>2.4069999999999999E-3</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.2">
@@ -22581,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="E746">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F746" t="s">
         <v>10</v>
@@ -22590,10 +22602,10 @@
         <v>11</v>
       </c>
       <c r="H746">
-        <v>0.19493199999999999</v>
+        <v>1.241657</v>
       </c>
       <c r="I746" s="1">
-        <v>2.4069999999999999E-3</v>
+        <v>7.8104999999999994E-2</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.2">
@@ -22610,7 +22622,7 @@
         <v>1</v>
       </c>
       <c r="E747">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F747" t="s">
         <v>10</v>
@@ -22619,10 +22631,10 @@
         <v>11</v>
       </c>
       <c r="H747">
-        <v>1.241657</v>
+        <v>0.91071599999999997</v>
       </c>
       <c r="I747" s="1">
-        <v>7.8104999999999994E-2</v>
+        <v>5.9412E-2</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.2">
@@ -22639,7 +22651,7 @@
         <v>1</v>
       </c>
       <c r="E748">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F748" t="s">
         <v>10</v>
@@ -22648,10 +22660,10 @@
         <v>11</v>
       </c>
       <c r="H748">
-        <v>0.91071599999999997</v>
+        <v>0.68480399999999997</v>
       </c>
       <c r="I748" s="1">
-        <v>5.9412E-2</v>
+        <v>2.0525000000000002E-2</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.2">
@@ -22668,7 +22680,7 @@
         <v>1</v>
       </c>
       <c r="E749">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F749" t="s">
         <v>10</v>
@@ -22677,10 +22689,10 @@
         <v>11</v>
       </c>
       <c r="H749">
-        <v>0.68480399999999997</v>
+        <v>0.63243199999999999</v>
       </c>
       <c r="I749" s="1">
-        <v>2.0525000000000002E-2</v>
+        <v>1.2648E-2</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.2">
@@ -22697,7 +22709,7 @@
         <v>1</v>
       </c>
       <c r="E750">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F750" t="s">
         <v>10</v>
@@ -22706,10 +22718,10 @@
         <v>11</v>
       </c>
       <c r="H750">
-        <v>0.63243199999999999</v>
+        <v>0.72081600000000001</v>
       </c>
       <c r="I750" s="1">
-        <v>1.2648E-2</v>
+        <v>3.3142999999999999E-2</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.2">
@@ -22726,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="E751">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F751" t="s">
         <v>10</v>
@@ -22735,10 +22747,10 @@
         <v>11</v>
       </c>
       <c r="H751">
-        <v>0.72081600000000001</v>
+        <v>0.70607399999999998</v>
       </c>
       <c r="I751" s="1">
-        <v>3.3142999999999999E-2</v>
+        <v>2.6182E-2</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.2">
@@ -22755,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="E752">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F752" t="s">
         <v>10</v>
@@ -22764,10 +22776,10 @@
         <v>11</v>
       </c>
       <c r="H752">
-        <v>0.70607399999999998</v>
+        <v>0.42863400000000001</v>
       </c>
       <c r="I752" s="1">
-        <v>2.6182E-2</v>
+        <v>8.0839999999999992E-3</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.2">
@@ -22784,7 +22796,7 @@
         <v>1</v>
       </c>
       <c r="E753">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F753" t="s">
         <v>10</v>
@@ -22793,10 +22805,10 @@
         <v>11</v>
       </c>
       <c r="H753">
-        <v>0.42863400000000001</v>
+        <v>1.7964359999999999</v>
       </c>
       <c r="I753" s="1">
-        <v>8.0839999999999992E-3</v>
+        <v>5.1047000000000002E-2</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.2">
@@ -22813,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="E754">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F754" t="s">
         <v>10</v>
@@ -22822,10 +22834,10 @@
         <v>11</v>
       </c>
       <c r="H754">
-        <v>1.7964359999999999</v>
+        <v>0.84393300000000004</v>
       </c>
       <c r="I754" s="1">
-        <v>5.1047000000000002E-2</v>
+        <v>2.1205000000000002E-2</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.2">
@@ -22842,7 +22854,7 @@
         <v>1</v>
       </c>
       <c r="E755">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F755" t="s">
         <v>10</v>
@@ -22851,10 +22863,10 @@
         <v>11</v>
       </c>
       <c r="H755">
-        <v>0.84393300000000004</v>
+        <v>0.67567699999999997</v>
       </c>
       <c r="I755" s="1">
-        <v>2.1205000000000002E-2</v>
+        <v>2.1419000000000001E-2</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.2">
@@ -22871,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="E756">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F756" t="s">
         <v>10</v>
@@ -22880,10 +22892,10 @@
         <v>11</v>
       </c>
       <c r="H756">
-        <v>0.67567699999999997</v>
+        <v>0.73776799999999998</v>
       </c>
       <c r="I756" s="1">
-        <v>2.1419000000000001E-2</v>
+        <v>3.356E-2</v>
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.2">
@@ -22900,7 +22912,7 @@
         <v>1</v>
       </c>
       <c r="E757">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F757" t="s">
         <v>10</v>
@@ -22909,10 +22921,10 @@
         <v>11</v>
       </c>
       <c r="H757">
-        <v>0.73776799999999998</v>
+        <v>0.74896200000000002</v>
       </c>
       <c r="I757" s="1">
-        <v>3.356E-2</v>
+        <v>2.2724000000000001E-2</v>
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.2">
@@ -22929,7 +22941,7 @@
         <v>1</v>
       </c>
       <c r="E758">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F758" t="s">
         <v>10</v>
@@ -22938,10 +22950,10 @@
         <v>11</v>
       </c>
       <c r="H758">
-        <v>0.74896200000000002</v>
+        <v>1.0435719999999999</v>
       </c>
       <c r="I758" s="1">
-        <v>2.2724000000000001E-2</v>
+        <v>4.3539000000000001E-2</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.2">
@@ -22958,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="E759">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F759" t="s">
         <v>10</v>
@@ -22967,10 +22979,10 @@
         <v>11</v>
       </c>
       <c r="H759">
-        <v>1.0435719999999999</v>
+        <v>0.39224999999999999</v>
       </c>
       <c r="I759" s="1">
-        <v>4.3539000000000001E-2</v>
+        <v>7.8050000000000003E-3</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.2">
@@ -22987,7 +22999,7 @@
         <v>1</v>
       </c>
       <c r="E760">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F760" t="s">
         <v>10</v>
@@ -22996,10 +23008,10 @@
         <v>11</v>
       </c>
       <c r="H760">
-        <v>0.39224999999999999</v>
+        <v>0.512212</v>
       </c>
       <c r="I760" s="1">
-        <v>7.8050000000000003E-3</v>
+        <v>1.7645000000000001E-2</v>
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.2">
@@ -23016,7 +23028,7 @@
         <v>1</v>
       </c>
       <c r="E761">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F761" t="s">
         <v>10</v>
@@ -23025,10 +23037,10 @@
         <v>11</v>
       </c>
       <c r="H761">
-        <v>0.512212</v>
+        <v>0.69477100000000003</v>
       </c>
       <c r="I761" s="1">
-        <v>1.7645000000000001E-2</v>
+        <v>2.8542000000000001E-2</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.2">
@@ -23045,7 +23057,7 @@
         <v>1</v>
       </c>
       <c r="E762">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F762" t="s">
         <v>10</v>
@@ -23054,10 +23066,10 @@
         <v>11</v>
       </c>
       <c r="H762">
-        <v>0.69477100000000003</v>
+        <v>0.66690099999999997</v>
       </c>
       <c r="I762" s="1">
-        <v>2.8542000000000001E-2</v>
+        <v>3.1560999999999999E-2</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.2">
@@ -23074,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="E763">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F763" t="s">
         <v>10</v>
@@ -23083,10 +23095,10 @@
         <v>11</v>
       </c>
       <c r="H763">
-        <v>0.66690099999999997</v>
+        <v>0.25384600000000002</v>
       </c>
       <c r="I763" s="1">
-        <v>3.1560999999999999E-2</v>
+        <v>2.8770000000000002E-3</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.2">
@@ -23103,7 +23115,7 @@
         <v>1</v>
       </c>
       <c r="E764">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F764" t="s">
         <v>10</v>
@@ -23112,10 +23124,10 @@
         <v>11</v>
       </c>
       <c r="H764">
-        <v>0.25384600000000002</v>
+        <v>0.58031200000000005</v>
       </c>
       <c r="I764" s="1">
-        <v>2.8770000000000002E-3</v>
+        <v>1.4315E-2</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.2">
@@ -23132,7 +23144,7 @@
         <v>1</v>
       </c>
       <c r="E765">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F765" t="s">
         <v>10</v>
@@ -23141,10 +23153,10 @@
         <v>11</v>
       </c>
       <c r="H765">
-        <v>0.58031200000000005</v>
+        <v>0.58649399999999996</v>
       </c>
       <c r="I765" s="1">
-        <v>1.4315E-2</v>
+        <v>1.5339E-2</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.2">
@@ -23161,7 +23173,7 @@
         <v>1</v>
       </c>
       <c r="E766">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F766" t="s">
         <v>10</v>
@@ -23170,10 +23182,10 @@
         <v>11</v>
       </c>
       <c r="H766">
-        <v>0.58649399999999996</v>
+        <v>0.52311399999999997</v>
       </c>
       <c r="I766" s="1">
-        <v>1.5339E-2</v>
+        <v>1.7791000000000001E-2</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.2">
@@ -23190,7 +23202,7 @@
         <v>1</v>
       </c>
       <c r="E767">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F767" t="s">
         <v>10</v>
@@ -23199,10 +23211,10 @@
         <v>11</v>
       </c>
       <c r="H767">
-        <v>0.52311399999999997</v>
+        <v>0.24172199999999999</v>
       </c>
       <c r="I767" s="1">
-        <v>1.7791000000000001E-2</v>
+        <v>2.366E-3</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.2">
@@ -23219,7 +23231,7 @@
         <v>1</v>
       </c>
       <c r="E768">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F768" t="s">
         <v>10</v>
@@ -23228,10 +23240,10 @@
         <v>11</v>
       </c>
       <c r="H768">
-        <v>0.24172199999999999</v>
+        <v>1.6439079999999999</v>
       </c>
       <c r="I768" s="1">
-        <v>2.366E-3</v>
+        <v>9.6277000000000001E-2</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.2">
@@ -23248,7 +23260,7 @@
         <v>1</v>
       </c>
       <c r="E769">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F769" t="s">
         <v>10</v>
@@ -23257,10 +23269,10 @@
         <v>11</v>
       </c>
       <c r="H769">
-        <v>1.6439079999999999</v>
+        <v>0.86888399999999999</v>
       </c>
       <c r="I769" s="1">
-        <v>9.6277000000000001E-2</v>
+        <v>4.0260999999999998E-2</v>
       </c>
     </row>
     <row r="770" spans="1:9" x14ac:dyDescent="0.2">
@@ -23277,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="E770">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F770" t="s">
         <v>10</v>
@@ -23286,10 +23298,10 @@
         <v>11</v>
       </c>
       <c r="H770">
-        <v>0.86888399999999999</v>
+        <v>0.29674899999999999</v>
       </c>
       <c r="I770" s="1">
-        <v>4.0260999999999998E-2</v>
+        <v>4.2810000000000001E-3</v>
       </c>
     </row>
     <row r="771" spans="1:9" x14ac:dyDescent="0.2">
@@ -23306,7 +23318,7 @@
         <v>1</v>
       </c>
       <c r="E771">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F771" t="s">
         <v>10</v>
@@ -23315,10 +23327,10 @@
         <v>11</v>
       </c>
       <c r="H771">
-        <v>0.29674899999999999</v>
+        <v>0.209393</v>
       </c>
       <c r="I771" s="1">
-        <v>4.2810000000000001E-3</v>
+        <v>3.0790000000000001E-3</v>
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.2">
@@ -23335,7 +23347,7 @@
         <v>1</v>
       </c>
       <c r="E772">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F772" t="s">
         <v>10</v>
@@ -23344,10 +23356,10 @@
         <v>11</v>
       </c>
       <c r="H772">
-        <v>0.209393</v>
+        <v>0.51375899999999997</v>
       </c>
       <c r="I772" s="1">
-        <v>3.0790000000000001E-3</v>
+        <v>4.9569999999999996E-3</v>
       </c>
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.2">
@@ -23364,7 +23376,7 @@
         <v>1</v>
       </c>
       <c r="E773">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F773" t="s">
         <v>10</v>
@@ -23373,10 +23385,10 @@
         <v>11</v>
       </c>
       <c r="H773">
-        <v>0.51375899999999997</v>
+        <v>1.539639</v>
       </c>
       <c r="I773" s="1">
-        <v>4.9569999999999996E-3</v>
+        <v>0.10216600000000001</v>
       </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.2">
@@ -23393,7 +23405,7 @@
         <v>1</v>
       </c>
       <c r="E774">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F774" t="s">
         <v>10</v>
@@ -23402,10 +23414,10 @@
         <v>11</v>
       </c>
       <c r="H774">
-        <v>1.539639</v>
+        <v>0.40409</v>
       </c>
       <c r="I774" s="1">
-        <v>0.10216600000000001</v>
+        <v>9.1210000000000006E-3</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.2">
@@ -23422,7 +23434,7 @@
         <v>1</v>
       </c>
       <c r="E775">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F775" t="s">
         <v>10</v>
@@ -23431,10 +23443,10 @@
         <v>11</v>
       </c>
       <c r="H775">
-        <v>0.40409</v>
+        <v>0.155278</v>
       </c>
       <c r="I775" s="1">
-        <v>9.1210000000000006E-3</v>
+        <v>1.6410000000000001E-3</v>
       </c>
     </row>
     <row r="776" spans="1:9" x14ac:dyDescent="0.2">
@@ -23451,19 +23463,19 @@
         <v>1</v>
       </c>
       <c r="E776">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="F776" t="s">
         <v>10</v>
       </c>
       <c r="G776" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H776">
-        <v>0.155278</v>
+        <v>0.664516</v>
       </c>
       <c r="I776" s="1">
-        <v>1.6410000000000001E-3</v>
+        <v>2.1853999999999998E-2</v>
       </c>
     </row>
     <row r="777" spans="1:9" x14ac:dyDescent="0.2">
@@ -23480,7 +23492,7 @@
         <v>1</v>
       </c>
       <c r="E777">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F777" t="s">
         <v>10</v>
@@ -23489,10 +23501,10 @@
         <v>13</v>
       </c>
       <c r="H777">
-        <v>0.664516</v>
+        <v>0.34402899999999997</v>
       </c>
       <c r="I777" s="1">
-        <v>2.1853999999999998E-2</v>
+        <v>4.8219999999999999E-3</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.2">
@@ -23509,7 +23521,7 @@
         <v>1</v>
       </c>
       <c r="E778">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F778" t="s">
         <v>10</v>
@@ -23518,10 +23530,10 @@
         <v>13</v>
       </c>
       <c r="H778">
-        <v>0.34402899999999997</v>
+        <v>0.13364400000000001</v>
       </c>
       <c r="I778" s="1">
-        <v>4.8219999999999999E-3</v>
+        <v>7.7800000000000005E-4</v>
       </c>
     </row>
     <row r="779" spans="1:9" x14ac:dyDescent="0.2">
@@ -23538,7 +23550,7 @@
         <v>1</v>
       </c>
       <c r="E779">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F779" t="s">
         <v>10</v>
@@ -23547,10 +23559,10 @@
         <v>13</v>
       </c>
       <c r="H779">
-        <v>0.13364400000000001</v>
+        <v>0.31080400000000002</v>
       </c>
       <c r="I779" s="1">
-        <v>7.7800000000000005E-4</v>
+        <v>2.238E-3</v>
       </c>
     </row>
     <row r="780" spans="1:9" x14ac:dyDescent="0.2">
@@ -23567,7 +23579,7 @@
         <v>1</v>
       </c>
       <c r="E780">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F780" t="s">
         <v>10</v>
@@ -23576,10 +23588,10 @@
         <v>13</v>
       </c>
       <c r="H780">
-        <v>0.31080400000000002</v>
+        <v>1.361337</v>
       </c>
       <c r="I780" s="1">
-        <v>2.238E-3</v>
+        <v>4.1933999999999999E-2</v>
       </c>
     </row>
     <row r="781" spans="1:9" x14ac:dyDescent="0.2">
@@ -23596,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="E781">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="F781" t="s">
         <v>10</v>
@@ -23605,10 +23617,10 @@
         <v>13</v>
       </c>
       <c r="H781">
-        <v>1.361337</v>
+        <v>0.81877200000000006</v>
       </c>
       <c r="I781" s="1">
-        <v>4.1933999999999999E-2</v>
+        <v>1.1676000000000001E-2</v>
       </c>
     </row>
     <row r="782" spans="1:9" x14ac:dyDescent="0.2">
@@ -23625,7 +23637,7 @@
         <v>1</v>
       </c>
       <c r="E782">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F782" t="s">
         <v>10</v>
@@ -23634,10 +23646,10 @@
         <v>13</v>
       </c>
       <c r="H782">
-        <v>0.81877200000000006</v>
+        <v>0.34406300000000001</v>
       </c>
       <c r="I782" s="1">
-        <v>1.1676000000000001E-2</v>
+        <v>5.3810000000000004E-3</v>
       </c>
     </row>
     <row r="783" spans="1:9" x14ac:dyDescent="0.2">
@@ -23654,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="E783">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F783" t="s">
         <v>10</v>
@@ -23663,10 +23675,10 @@
         <v>13</v>
       </c>
       <c r="H783">
-        <v>0.34406300000000001</v>
+        <v>0.58304100000000003</v>
       </c>
       <c r="I783" s="1">
-        <v>5.3810000000000004E-3</v>
+        <v>5.8789999999999997E-3</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
@@ -23683,7 +23695,7 @@
         <v>1</v>
       </c>
       <c r="E784">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F784" t="s">
         <v>10</v>
@@ -23692,10 +23704,10 @@
         <v>13</v>
       </c>
       <c r="H784">
-        <v>0.58304100000000003</v>
+        <v>0.373666</v>
       </c>
       <c r="I784" s="1">
-        <v>5.8789999999999997E-3</v>
+        <v>4.8529999999999997E-3</v>
       </c>
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.2">
@@ -23712,7 +23724,7 @@
         <v>1</v>
       </c>
       <c r="E785">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F785" t="s">
         <v>10</v>
@@ -23721,10 +23733,10 @@
         <v>13</v>
       </c>
       <c r="H785">
-        <v>0.373666</v>
+        <v>1.489557</v>
       </c>
       <c r="I785" s="1">
-        <v>4.8529999999999997E-3</v>
+        <v>3.4445999999999997E-2</v>
       </c>
     </row>
     <row r="786" spans="1:9" x14ac:dyDescent="0.2">
@@ -23741,7 +23753,7 @@
         <v>1</v>
       </c>
       <c r="E786">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F786" t="s">
         <v>10</v>
@@ -23750,10 +23762,10 @@
         <v>13</v>
       </c>
       <c r="H786">
-        <v>1.489557</v>
+        <v>0.36911899999999997</v>
       </c>
       <c r="I786" s="1">
-        <v>3.4445999999999997E-2</v>
+        <v>3.9420000000000002E-3</v>
       </c>
     </row>
     <row r="787" spans="1:9" x14ac:dyDescent="0.2">
@@ -23770,7 +23782,7 @@
         <v>1</v>
       </c>
       <c r="E787">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F787" t="s">
         <v>10</v>
@@ -23779,10 +23791,10 @@
         <v>13</v>
       </c>
       <c r="H787">
-        <v>0.36911899999999997</v>
+        <v>1.2050449999999999</v>
       </c>
       <c r="I787" s="1">
-        <v>3.9420000000000002E-3</v>
+        <v>2.2425E-2</v>
       </c>
     </row>
     <row r="788" spans="1:9" x14ac:dyDescent="0.2">
@@ -23799,7 +23811,7 @@
         <v>1</v>
       </c>
       <c r="E788">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F788" t="s">
         <v>10</v>
@@ -23808,10 +23820,10 @@
         <v>13</v>
       </c>
       <c r="H788">
-        <v>1.2050449999999999</v>
+        <v>0.820577</v>
       </c>
       <c r="I788" s="1">
-        <v>2.2425E-2</v>
+        <v>1.3073E-2</v>
       </c>
     </row>
     <row r="789" spans="1:9" x14ac:dyDescent="0.2">
@@ -23828,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="E789">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F789" t="s">
         <v>10</v>
@@ -23837,10 +23849,10 @@
         <v>13</v>
       </c>
       <c r="H789">
-        <v>0.820577</v>
+        <v>1.5698589999999999</v>
       </c>
       <c r="I789" s="1">
-        <v>1.3073E-2</v>
+        <v>2.9881000000000001E-2</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.2">
@@ -23857,7 +23869,7 @@
         <v>1</v>
       </c>
       <c r="E790">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F790" t="s">
         <v>10</v>
@@ -23866,10 +23878,10 @@
         <v>13</v>
       </c>
       <c r="H790">
-        <v>1.5698589999999999</v>
+        <v>0.21860499999999999</v>
       </c>
       <c r="I790" s="1">
-        <v>2.9881000000000001E-2</v>
+        <v>1.6169999999999999E-3</v>
       </c>
     </row>
     <row r="791" spans="1:9" x14ac:dyDescent="0.2">
@@ -23886,7 +23898,7 @@
         <v>1</v>
       </c>
       <c r="E791">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F791" t="s">
         <v>10</v>
@@ -23895,10 +23907,10 @@
         <v>13</v>
       </c>
       <c r="H791">
-        <v>0.21860499999999999</v>
+        <v>0.18238199999999999</v>
       </c>
       <c r="I791" s="1">
-        <v>1.6169999999999999E-3</v>
+        <v>9.4899999999999997E-4</v>
       </c>
     </row>
     <row r="792" spans="1:9" x14ac:dyDescent="0.2">
@@ -23915,7 +23927,7 @@
         <v>1</v>
       </c>
       <c r="E792">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F792" t="s">
         <v>10</v>
@@ -23924,10 +23936,10 @@
         <v>13</v>
       </c>
       <c r="H792">
-        <v>0.18238199999999999</v>
+        <v>0.221023</v>
       </c>
       <c r="I792" s="1">
-        <v>9.4899999999999997E-4</v>
+        <v>1.4840000000000001E-3</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.2">
@@ -23944,7 +23956,7 @@
         <v>1</v>
       </c>
       <c r="E793">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F793" t="s">
         <v>10</v>
@@ -23953,10 +23965,10 @@
         <v>13</v>
       </c>
       <c r="H793">
-        <v>0.221023</v>
+        <v>2.4244829999999999</v>
       </c>
       <c r="I793" s="1">
-        <v>1.4840000000000001E-3</v>
+        <v>0.123599</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.2">
@@ -23973,7 +23985,7 @@
         <v>1</v>
       </c>
       <c r="E794">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F794" t="s">
         <v>10</v>
@@ -23982,10 +23994,10 @@
         <v>13</v>
       </c>
       <c r="H794">
-        <v>2.4244829999999999</v>
+        <v>0.64473000000000003</v>
       </c>
       <c r="I794" s="1">
-        <v>0.123599</v>
+        <v>8.6119999999999999E-3</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.2">
@@ -24002,7 +24014,7 @@
         <v>1</v>
       </c>
       <c r="E795">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F795" t="s">
         <v>10</v>
@@ -24011,10 +24023,10 @@
         <v>13</v>
       </c>
       <c r="H795">
-        <v>0.64473000000000003</v>
+        <v>0.46530700000000003</v>
       </c>
       <c r="I795" s="1">
-        <v>8.6119999999999999E-3</v>
+        <v>6.1240000000000001E-3</v>
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.2">
@@ -24031,7 +24043,7 @@
         <v>1</v>
       </c>
       <c r="E796">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F796" t="s">
         <v>10</v>
@@ -24040,10 +24052,10 @@
         <v>13</v>
       </c>
       <c r="H796">
-        <v>0.46530700000000003</v>
+        <v>0.28864600000000001</v>
       </c>
       <c r="I796" s="1">
-        <v>6.1240000000000001E-3</v>
+        <v>3.3790000000000001E-3</v>
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.2">
@@ -24060,7 +24072,7 @@
         <v>1</v>
       </c>
       <c r="E797">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F797" t="s">
         <v>10</v>
@@ -24069,10 +24081,10 @@
         <v>13</v>
       </c>
       <c r="H797">
-        <v>0.28864600000000001</v>
+        <v>0.118616</v>
       </c>
       <c r="I797" s="1">
-        <v>3.3790000000000001E-3</v>
+        <v>8.25E-4</v>
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.2">
@@ -24089,7 +24101,7 @@
         <v>1</v>
       </c>
       <c r="E798">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F798" t="s">
         <v>10</v>
@@ -24098,10 +24110,10 @@
         <v>13</v>
       </c>
       <c r="H798">
-        <v>0.118616</v>
+        <v>0.15906400000000001</v>
       </c>
       <c r="I798" s="1">
-        <v>8.25E-4</v>
+        <v>6.87E-4</v>
       </c>
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.2">
@@ -24118,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="E799">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F799" t="s">
         <v>10</v>
@@ -24127,10 +24139,10 @@
         <v>13</v>
       </c>
       <c r="H799">
-        <v>0.15906400000000001</v>
+        <v>0.34479700000000002</v>
       </c>
       <c r="I799" s="1">
-        <v>6.87E-4</v>
+        <v>4.0980000000000001E-3</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.2">
@@ -24147,7 +24159,7 @@
         <v>1</v>
       </c>
       <c r="E800">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F800" t="s">
         <v>10</v>
@@ -24156,10 +24168,10 @@
         <v>13</v>
       </c>
       <c r="H800">
-        <v>0.34479700000000002</v>
+        <v>0.69379599999999997</v>
       </c>
       <c r="I800" s="1">
-        <v>4.0980000000000001E-3</v>
+        <v>6.1110000000000001E-3</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.2">
@@ -24176,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="E801">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F801" t="s">
         <v>10</v>
@@ -24185,10 +24197,10 @@
         <v>13</v>
       </c>
       <c r="H801">
-        <v>0.69379599999999997</v>
+        <v>0.74669099999999999</v>
       </c>
       <c r="I801" s="1">
-        <v>6.1110000000000001E-3</v>
+        <v>1.1896E-2</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.2">
@@ -24205,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="E802">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F802" t="s">
         <v>10</v>
@@ -24214,10 +24226,10 @@
         <v>13</v>
       </c>
       <c r="H802">
-        <v>0.74669099999999999</v>
+        <v>6.096E-2</v>
       </c>
       <c r="I802" s="1">
-        <v>1.1896E-2</v>
+        <v>2.3599999999999999E-4</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.2">
@@ -24234,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="E803">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F803" t="s">
         <v>10</v>
@@ -24243,10 +24255,10 @@
         <v>13</v>
       </c>
       <c r="H803">
-        <v>6.096E-2</v>
+        <v>9.6286999999999998E-2</v>
       </c>
       <c r="I803" s="1">
-        <v>2.3599999999999999E-4</v>
+        <v>5.1400000000000003E-4</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.2">
@@ -24263,7 +24275,7 @@
         <v>1</v>
       </c>
       <c r="E804">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F804" t="s">
         <v>10</v>
@@ -24272,10 +24284,10 @@
         <v>13</v>
       </c>
       <c r="H804">
-        <v>9.6286999999999998E-2</v>
+        <v>0.36874800000000002</v>
       </c>
       <c r="I804" s="1">
-        <v>5.1400000000000003E-4</v>
+        <v>3.2469999999999999E-3</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.2">
@@ -24292,7 +24304,7 @@
         <v>1</v>
       </c>
       <c r="E805">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F805" t="s">
         <v>10</v>
@@ -24301,10 +24313,10 @@
         <v>13</v>
       </c>
       <c r="H805">
-        <v>0.36874800000000002</v>
+        <v>0.42383100000000001</v>
       </c>
       <c r="I805" s="1">
-        <v>3.2469999999999999E-3</v>
+        <v>6.0350000000000004E-3</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.2">
@@ -24321,7 +24333,7 @@
         <v>1</v>
       </c>
       <c r="E806">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F806" t="s">
         <v>10</v>
@@ -24330,10 +24342,10 @@
         <v>13</v>
       </c>
       <c r="H806">
-        <v>0.42383100000000001</v>
+        <v>0.15290999999999999</v>
       </c>
       <c r="I806" s="1">
-        <v>6.0350000000000004E-3</v>
+        <v>1.493E-3</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.2">
@@ -24350,7 +24362,7 @@
         <v>1</v>
       </c>
       <c r="E807">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F807" t="s">
         <v>10</v>
@@ -24359,10 +24371,10 @@
         <v>13</v>
       </c>
       <c r="H807">
-        <v>0.15290999999999999</v>
+        <v>1.314052</v>
       </c>
       <c r="I807" s="1">
-        <v>1.493E-3</v>
+        <v>2.8646999999999999E-2</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.2">
@@ -24379,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="E808">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F808" t="s">
         <v>10</v>
@@ -24388,10 +24400,10 @@
         <v>13</v>
       </c>
       <c r="H808">
-        <v>1.314052</v>
+        <v>0.128271</v>
       </c>
       <c r="I808" s="1">
-        <v>2.8646999999999999E-2</v>
+        <v>1.0280000000000001E-3</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.2">
@@ -24408,7 +24420,7 @@
         <v>1</v>
       </c>
       <c r="E809">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F809" t="s">
         <v>10</v>
@@ -24417,10 +24429,10 @@
         <v>13</v>
       </c>
       <c r="H809">
-        <v>0.128271</v>
+        <v>0.51754100000000003</v>
       </c>
       <c r="I809" s="1">
-        <v>1.0280000000000001E-3</v>
+        <v>1.2737999999999999E-2</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.2">
@@ -24437,7 +24449,7 @@
         <v>1</v>
       </c>
       <c r="E810">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F810" t="s">
         <v>10</v>
@@ -24446,10 +24458,10 @@
         <v>13</v>
       </c>
       <c r="H810">
-        <v>0.51754100000000003</v>
+        <v>0.95663900000000002</v>
       </c>
       <c r="I810" s="1">
-        <v>1.2737999999999999E-2</v>
+        <v>1.3372999999999999E-2</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.2">
@@ -24466,7 +24478,7 @@
         <v>1</v>
       </c>
       <c r="E811">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F811" t="s">
         <v>10</v>
@@ -24475,10 +24487,10 @@
         <v>13</v>
       </c>
       <c r="H811">
-        <v>0.95663900000000002</v>
+        <v>0.326988</v>
       </c>
       <c r="I811" s="1">
-        <v>1.3372999999999999E-2</v>
+        <v>3.447E-3</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.2">
@@ -24495,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="E812">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F812" t="s">
         <v>10</v>
@@ -24504,10 +24516,10 @@
         <v>13</v>
       </c>
       <c r="H812">
-        <v>0.326988</v>
+        <v>1.0732820000000001</v>
       </c>
       <c r="I812" s="1">
-        <v>3.447E-3</v>
+        <v>3.8996000000000003E-2</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.2">
@@ -24524,7 +24536,7 @@
         <v>1</v>
       </c>
       <c r="E813">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F813" t="s">
         <v>10</v>
@@ -24533,10 +24545,10 @@
         <v>13</v>
       </c>
       <c r="H813">
-        <v>1.0732820000000001</v>
+        <v>0.13347400000000001</v>
       </c>
       <c r="I813" s="1">
-        <v>3.8996000000000003E-2</v>
+        <v>1.2210000000000001E-3</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.2">
@@ -24553,7 +24565,7 @@
         <v>1</v>
       </c>
       <c r="E814">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F814" t="s">
         <v>10</v>
@@ -24562,10 +24574,10 @@
         <v>13</v>
       </c>
       <c r="H814">
-        <v>0.13347400000000001</v>
+        <v>0.415574</v>
       </c>
       <c r="I814" s="1">
-        <v>1.2210000000000001E-3</v>
+        <v>2.5920000000000001E-3</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.2">
@@ -24582,7 +24594,7 @@
         <v>1</v>
       </c>
       <c r="E815">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F815" t="s">
         <v>10</v>
@@ -24591,10 +24603,10 @@
         <v>13</v>
       </c>
       <c r="H815">
-        <v>0.415574</v>
+        <v>7.0943999999999993E-2</v>
       </c>
       <c r="I815" s="1">
-        <v>2.5920000000000001E-3</v>
+        <v>3.5199999999999999E-4</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.2">
@@ -24611,7 +24623,7 @@
         <v>1</v>
       </c>
       <c r="E816">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F816" t="s">
         <v>10</v>
@@ -24620,10 +24632,10 @@
         <v>13</v>
       </c>
       <c r="H816">
-        <v>7.0943999999999993E-2</v>
+        <v>8.1076999999999996E-2</v>
       </c>
       <c r="I816" s="1">
-        <v>3.5199999999999999E-4</v>
+        <v>3.0200000000000002E-4</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.2">
@@ -24640,7 +24652,7 @@
         <v>1</v>
       </c>
       <c r="E817">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F817" t="s">
         <v>10</v>
@@ -24649,10 +24661,10 @@
         <v>13</v>
       </c>
       <c r="H817">
-        <v>8.1076999999999996E-2</v>
+        <v>6.2232000000000003E-2</v>
       </c>
       <c r="I817" s="1">
-        <v>3.0200000000000002E-4</v>
+        <v>2.6600000000000001E-4</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.2">
@@ -24669,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="E818">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F818" t="s">
         <v>10</v>
@@ -24678,10 +24690,10 @@
         <v>13</v>
       </c>
       <c r="H818">
-        <v>6.2232000000000003E-2</v>
+        <v>0.17857000000000001</v>
       </c>
       <c r="I818" s="1">
-        <v>2.6600000000000001E-4</v>
+        <v>1.531E-3</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.2">
@@ -24698,7 +24710,7 @@
         <v>1</v>
       </c>
       <c r="E819">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F819" t="s">
         <v>10</v>
@@ -24707,10 +24719,10 @@
         <v>13</v>
       </c>
       <c r="H819">
-        <v>0.17857000000000001</v>
+        <v>0.18854000000000001</v>
       </c>
       <c r="I819" s="1">
-        <v>1.531E-3</v>
+        <v>1.325E-3</v>
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.2">
@@ -24727,19 +24739,19 @@
         <v>1</v>
       </c>
       <c r="E820">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="F820" t="s">
         <v>10</v>
       </c>
       <c r="G820" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H820">
-        <v>0.18854000000000001</v>
+        <v>0.151058</v>
       </c>
       <c r="I820" s="1">
-        <v>1.325E-3</v>
+        <v>1.4630000000000001E-3</v>
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.2">
@@ -24756,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="E821">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F821" t="s">
         <v>10</v>
@@ -24765,10 +24777,10 @@
         <v>14</v>
       </c>
       <c r="H821">
-        <v>0.151058</v>
+        <v>0.320911</v>
       </c>
       <c r="I821" s="1">
-        <v>1.4630000000000001E-3</v>
+        <v>1.8879999999999999E-3</v>
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.2">
@@ -24785,7 +24797,7 @@
         <v>1</v>
       </c>
       <c r="E822">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F822" t="s">
         <v>10</v>
@@ -24794,10 +24806,10 @@
         <v>14</v>
       </c>
       <c r="H822">
-        <v>0.320911</v>
+        <v>1.3005800000000001</v>
       </c>
       <c r="I822" s="1">
-        <v>1.8879999999999999E-3</v>
+        <v>2.8982000000000001E-2</v>
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.2">
@@ -24814,7 +24826,7 @@
         <v>1</v>
       </c>
       <c r="E823">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="F823" t="s">
         <v>10</v>
@@ -24823,10 +24835,10 @@
         <v>14</v>
       </c>
       <c r="H823">
-        <v>1.3005800000000001</v>
+        <v>0.75244999999999995</v>
       </c>
       <c r="I823" s="1">
-        <v>2.8982000000000001E-2</v>
+        <v>4.1009999999999998E-2</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.2">
@@ -24843,7 +24855,7 @@
         <v>1</v>
       </c>
       <c r="E824">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F824" t="s">
         <v>10</v>
@@ -24852,10 +24864,10 @@
         <v>14</v>
       </c>
       <c r="H824">
-        <v>0.75244999999999995</v>
+        <v>1.146587</v>
       </c>
       <c r="I824" s="1">
-        <v>4.1009999999999998E-2</v>
+        <v>6.5193000000000001E-2</v>
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.2">
@@ -24872,7 +24884,7 @@
         <v>1</v>
       </c>
       <c r="E825">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F825" t="s">
         <v>10</v>
@@ -24881,10 +24893,10 @@
         <v>14</v>
       </c>
       <c r="H825">
-        <v>1.146587</v>
+        <v>1.4922280000000001</v>
       </c>
       <c r="I825" s="1">
-        <v>6.5193000000000001E-2</v>
+        <v>0.172011</v>
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.2">
@@ -24901,7 +24913,7 @@
         <v>1</v>
       </c>
       <c r="E826">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="F826" t="s">
         <v>10</v>
@@ -24910,10 +24922,10 @@
         <v>14</v>
       </c>
       <c r="H826">
-        <v>1.4922280000000001</v>
+        <v>0.57586199999999999</v>
       </c>
       <c r="I826" s="1">
-        <v>0.172011</v>
+        <v>1.9245999999999999E-2</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.2">
@@ -24930,7 +24942,7 @@
         <v>1</v>
       </c>
       <c r="E827">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="F827" t="s">
         <v>10</v>
@@ -24939,10 +24951,10 @@
         <v>14</v>
       </c>
       <c r="H827">
-        <v>0.57586199999999999</v>
+        <v>0.188501</v>
       </c>
       <c r="I827" s="1">
-        <v>1.9245999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.2">
@@ -24959,19 +24971,19 @@
         <v>1</v>
       </c>
       <c r="E828">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="F828" t="s">
         <v>10</v>
       </c>
       <c r="G828" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H828">
-        <v>0.188501</v>
+        <v>0.21088799999999999</v>
       </c>
       <c r="I828" s="1">
-        <v>1.01E-3</v>
+        <v>2.7520000000000001E-3</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.2">
@@ -24988,19 +25000,19 @@
         <v>1</v>
       </c>
       <c r="E829">
+        <v>5</v>
+      </c>
+      <c r="F829" t="s">
+        <v>10</v>
+      </c>
+      <c r="G829" t="s">
         <v>16</v>
       </c>
-      <c r="F829" t="s">
-        <v>10</v>
-      </c>
-      <c r="G829" t="s">
-        <v>15</v>
-      </c>
       <c r="H829">
-        <v>0.21088799999999999</v>
+        <v>0.26285199999999997</v>
       </c>
       <c r="I829" s="1">
-        <v>2.7520000000000001E-3</v>
+        <v>4.346E-3</v>
       </c>
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.2">
@@ -25017,7 +25029,7 @@
         <v>1</v>
       </c>
       <c r="E830">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F830" t="s">
         <v>10</v>
@@ -25026,10 +25038,10 @@
         <v>16</v>
       </c>
       <c r="H830">
-        <v>0.26285199999999997</v>
+        <v>0.76269799999999999</v>
       </c>
       <c r="I830" s="1">
-        <v>4.346E-3</v>
+        <v>1.8117999999999999E-2</v>
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.2">
@@ -25046,7 +25058,7 @@
         <v>1</v>
       </c>
       <c r="E831">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F831" t="s">
         <v>10</v>
@@ -25055,10 +25067,10 @@
         <v>16</v>
       </c>
       <c r="H831">
-        <v>0.76269799999999999</v>
+        <v>1.6036300000000001</v>
       </c>
       <c r="I831" s="1">
-        <v>1.8117999999999999E-2</v>
+        <v>4.4336E-2</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.2">
@@ -25075,7 +25087,7 @@
         <v>1</v>
       </c>
       <c r="E832">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="F832" t="s">
         <v>10</v>
@@ -25084,10 +25096,10 @@
         <v>16</v>
       </c>
       <c r="H832">
-        <v>1.6036300000000001</v>
+        <v>0.73442499999999999</v>
       </c>
       <c r="I832" s="1">
-        <v>4.4336E-2</v>
+        <v>2.3094E-2</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.2">
@@ -25104,7 +25116,7 @@
         <v>1</v>
       </c>
       <c r="E833">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F833" t="s">
         <v>10</v>
@@ -25113,10 +25125,10 @@
         <v>16</v>
       </c>
       <c r="H833">
-        <v>0.73442499999999999</v>
+        <v>0.66949099999999995</v>
       </c>
       <c r="I833" s="1">
-        <v>2.3094E-2</v>
+        <v>1.1353E-2</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.2">
@@ -25133,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="E834">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="F834" t="s">
         <v>10</v>
@@ -25142,10 +25154,10 @@
         <v>16</v>
       </c>
       <c r="H834">
-        <v>0.66949099999999995</v>
+        <v>0.96754499999999999</v>
       </c>
       <c r="I834" s="1">
-        <v>1.1353E-2</v>
+        <v>1.8752000000000001E-2</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.2">
@@ -25162,7 +25174,7 @@
         <v>1</v>
       </c>
       <c r="E835">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F835" t="s">
         <v>10</v>
@@ -25171,10 +25183,10 @@
         <v>16</v>
       </c>
       <c r="H835">
-        <v>0.96754499999999999</v>
+        <v>0.86893500000000001</v>
       </c>
       <c r="I835" s="1">
-        <v>1.8752000000000001E-2</v>
+        <v>1.7162E-2</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.2">
@@ -25191,7 +25203,7 @@
         <v>1</v>
       </c>
       <c r="E836">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F836" t="s">
         <v>10</v>
@@ -25200,10 +25212,10 @@
         <v>16</v>
       </c>
       <c r="H836">
-        <v>0.86893500000000001</v>
+        <v>0.95590799999999998</v>
       </c>
       <c r="I836" s="1">
-        <v>1.7162E-2</v>
+        <v>2.6939000000000001E-2</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.2">
@@ -25220,7 +25232,7 @@
         <v>1</v>
       </c>
       <c r="E837">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F837" t="s">
         <v>10</v>
@@ -25229,10 +25241,10 @@
         <v>16</v>
       </c>
       <c r="H837">
-        <v>0.95590799999999998</v>
+        <v>0.65118299999999996</v>
       </c>
       <c r="I837" s="1">
-        <v>2.6939000000000001E-2</v>
+        <v>1.9562E-2</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.2">
@@ -25249,7 +25261,7 @@
         <v>1</v>
       </c>
       <c r="E838">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F838" t="s">
         <v>10</v>
@@ -25258,10 +25270,10 @@
         <v>16</v>
       </c>
       <c r="H838">
-        <v>0.65118299999999996</v>
+        <v>0.67141600000000001</v>
       </c>
       <c r="I838" s="1">
-        <v>1.9562E-2</v>
+        <v>1.3601E-2</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.2">
@@ -25278,7 +25290,7 @@
         <v>1</v>
       </c>
       <c r="E839">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F839" t="s">
         <v>10</v>
@@ -25287,10 +25299,10 @@
         <v>16</v>
       </c>
       <c r="H839">
-        <v>0.67141600000000001</v>
+        <v>0.458316</v>
       </c>
       <c r="I839" s="1">
-        <v>1.3601E-2</v>
+        <v>9.3329999999999993E-3</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.2">
@@ -25307,7 +25319,7 @@
         <v>1</v>
       </c>
       <c r="E840">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F840" t="s">
         <v>10</v>
@@ -25316,10 +25328,10 @@
         <v>16</v>
       </c>
       <c r="H840">
-        <v>0.458316</v>
+        <v>0.42529</v>
       </c>
       <c r="I840" s="1">
-        <v>9.3329999999999993E-3</v>
+        <v>1.1653999999999999E-2</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -25336,7 +25348,7 @@
         <v>1</v>
       </c>
       <c r="E841">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="F841" t="s">
         <v>10</v>
@@ -25345,10 +25357,10 @@
         <v>16</v>
       </c>
       <c r="H841">
-        <v>0.42529</v>
+        <v>0.29082200000000002</v>
       </c>
       <c r="I841" s="1">
-        <v>1.1653999999999999E-2</v>
+        <v>5.0509999999999999E-3</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.2">
@@ -25365,7 +25377,7 @@
         <v>1</v>
       </c>
       <c r="E842">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F842" t="s">
         <v>10</v>
@@ -25374,10 +25386,10 @@
         <v>16</v>
       </c>
       <c r="H842">
-        <v>0.29082200000000002</v>
+        <v>9.7735000000000002E-2</v>
       </c>
       <c r="I842" s="1">
-        <v>5.0509999999999999E-3</v>
+        <v>2.8699999999999998E-4</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -25394,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="E843">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F843" t="s">
         <v>10</v>
@@ -25403,10 +25415,10 @@
         <v>16</v>
       </c>
       <c r="H843">
-        <v>9.7735000000000002E-2</v>
+        <v>0.55842700000000001</v>
       </c>
       <c r="I843" s="1">
-        <v>2.8699999999999998E-4</v>
+        <v>8.5240000000000003E-3</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.2">
@@ -25423,7 +25435,7 @@
         <v>1</v>
       </c>
       <c r="E844">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F844" t="s">
         <v>10</v>
@@ -25432,10 +25444,10 @@
         <v>16</v>
       </c>
       <c r="H844">
-        <v>0.55842700000000001</v>
+        <v>0.322463</v>
       </c>
       <c r="I844" s="1">
-        <v>8.5240000000000003E-3</v>
+        <v>5.4799999999999996E-3</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.2">
@@ -25452,7 +25464,7 @@
         <v>1</v>
       </c>
       <c r="E845">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F845" t="s">
         <v>10</v>
@@ -25461,10 +25473,10 @@
         <v>16</v>
       </c>
       <c r="H845">
-        <v>0.322463</v>
+        <v>0.72711199999999998</v>
       </c>
       <c r="I845" s="1">
-        <v>5.4799999999999996E-3</v>
+        <v>1.9102999999999998E-2</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.2">
@@ -25481,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="E846">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F846" t="s">
         <v>10</v>
@@ -25490,10 +25502,10 @@
         <v>16</v>
       </c>
       <c r="H846">
-        <v>0.72711199999999998</v>
+        <v>0.41602600000000001</v>
       </c>
       <c r="I846" s="1">
-        <v>1.9102999999999998E-2</v>
+        <v>8.2459999999999999E-3</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
@@ -25510,7 +25522,7 @@
         <v>1</v>
       </c>
       <c r="E847">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F847" t="s">
         <v>10</v>
@@ -25519,10 +25531,10 @@
         <v>16</v>
       </c>
       <c r="H847">
-        <v>0.41602600000000001</v>
+        <v>0.249115</v>
       </c>
       <c r="I847" s="1">
-        <v>8.2459999999999999E-3</v>
+        <v>4.2370000000000003E-3</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.2">
@@ -25539,7 +25551,7 @@
         <v>1</v>
       </c>
       <c r="E848">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F848" t="s">
         <v>10</v>
@@ -25548,10 +25560,10 @@
         <v>16</v>
       </c>
       <c r="H848">
-        <v>0.249115</v>
+        <v>0.35469400000000001</v>
       </c>
       <c r="I848" s="1">
-        <v>4.2370000000000003E-3</v>
+        <v>7.0629999999999998E-3</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.2">
@@ -25568,19 +25580,19 @@
         <v>1</v>
       </c>
       <c r="E849">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="F849" t="s">
         <v>10</v>
       </c>
       <c r="G849" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H849">
-        <v>0.35469400000000001</v>
+        <v>0.976989</v>
       </c>
       <c r="I849" s="1">
-        <v>7.0629999999999998E-3</v>
+        <v>1.5677E-2</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.2">
@@ -25597,7 +25609,7 @@
         <v>1</v>
       </c>
       <c r="E850">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F850" t="s">
         <v>10</v>
@@ -25606,10 +25618,10 @@
         <v>17</v>
       </c>
       <c r="H850">
-        <v>0.976989</v>
+        <v>0.25916499999999998</v>
       </c>
       <c r="I850" s="1">
-        <v>1.5677E-2</v>
+        <v>3.3189999999999999E-3</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.2">
@@ -25626,19 +25638,19 @@
         <v>1</v>
       </c>
       <c r="E851">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="F851" t="s">
         <v>10</v>
       </c>
       <c r="G851" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H851">
-        <v>0.25916499999999998</v>
+        <v>0.119119</v>
       </c>
       <c r="I851" s="1">
-        <v>3.3189999999999999E-3</v>
+        <v>9.7199999999999999E-4</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.2">
@@ -25655,7 +25667,7 @@
         <v>1</v>
       </c>
       <c r="E852">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F852" t="s">
         <v>10</v>
@@ -25664,10 +25676,10 @@
         <v>18</v>
       </c>
       <c r="H852">
-        <v>0.119119</v>
+        <v>0.65955299999999994</v>
       </c>
       <c r="I852" s="1">
-        <v>9.7199999999999999E-4</v>
+        <v>1.0633E-2</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.2">
@@ -25684,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="E853">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F853" t="s">
         <v>10</v>
@@ -25693,10 +25705,10 @@
         <v>18</v>
       </c>
       <c r="H853">
-        <v>0.65955299999999994</v>
+        <v>1.6411279999999999</v>
       </c>
       <c r="I853" s="1">
-        <v>1.0633E-2</v>
+        <v>4.6169000000000002E-2</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.2">
@@ -25713,7 +25725,7 @@
         <v>1</v>
       </c>
       <c r="E854">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F854" t="s">
         <v>10</v>
@@ -25722,10 +25734,10 @@
         <v>18</v>
       </c>
       <c r="H854">
-        <v>1.6411279999999999</v>
+        <v>1.127861</v>
       </c>
       <c r="I854" s="1">
-        <v>4.6169000000000002E-2</v>
+        <v>1.0992E-2</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.2">
@@ -25742,7 +25754,7 @@
         <v>1</v>
       </c>
       <c r="E855">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F855" t="s">
         <v>10</v>
@@ -25751,10 +25763,10 @@
         <v>18</v>
       </c>
       <c r="H855">
-        <v>1.127861</v>
+        <v>0.42805500000000002</v>
       </c>
       <c r="I855" s="1">
-        <v>1.0992E-2</v>
+        <v>7.4149999999999997E-3</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.2">
@@ -25771,7 +25783,7 @@
         <v>1</v>
       </c>
       <c r="E856">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F856" t="s">
         <v>10</v>
@@ -25780,10 +25792,10 @@
         <v>18</v>
       </c>
       <c r="H856">
-        <v>0.42805500000000002</v>
+        <v>5.3702E-2</v>
       </c>
       <c r="I856" s="1">
-        <v>7.4149999999999997E-3</v>
+        <v>1.8900000000000001E-4</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.2">
@@ -25800,7 +25812,7 @@
         <v>1</v>
       </c>
       <c r="E857">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F857" t="s">
         <v>10</v>
@@ -25809,10 +25821,10 @@
         <v>18</v>
       </c>
       <c r="H857">
-        <v>5.3702E-2</v>
+        <v>0.15794900000000001</v>
       </c>
       <c r="I857" s="1">
-        <v>1.8900000000000001E-4</v>
+        <v>9.6000000000000002E-4</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.2">
@@ -25829,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="E858">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F858" t="s">
         <v>10</v>
@@ -25838,10 +25850,10 @@
         <v>18</v>
       </c>
       <c r="H858">
-        <v>0.15794900000000001</v>
+        <v>6.3181000000000003</v>
       </c>
       <c r="I858" s="1">
-        <v>9.6000000000000002E-4</v>
+        <v>6.7151000000000002E-2</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.2">
@@ -25858,7 +25870,7 @@
         <v>1</v>
       </c>
       <c r="E859">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F859" t="s">
         <v>10</v>
@@ -25867,10 +25879,10 @@
         <v>18</v>
       </c>
       <c r="H859">
-        <v>6.3181000000000003</v>
+        <v>0.12856300000000001</v>
       </c>
       <c r="I859" s="1">
-        <v>6.7151000000000002E-2</v>
+        <v>9.9700000000000006E-4</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.2">
@@ -25887,7 +25899,7 @@
         <v>1</v>
       </c>
       <c r="E860">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F860" t="s">
         <v>10</v>
@@ -25896,10 +25908,10 @@
         <v>18</v>
       </c>
       <c r="H860">
-        <v>0.12856300000000001</v>
+        <v>0.25085099999999999</v>
       </c>
       <c r="I860" s="1">
-        <v>9.9700000000000006E-4</v>
+        <v>3.7420000000000001E-3</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.2">
@@ -25916,7 +25928,7 @@
         <v>1</v>
       </c>
       <c r="E861">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F861" t="s">
         <v>10</v>
@@ -25925,10 +25937,10 @@
         <v>18</v>
       </c>
       <c r="H861">
-        <v>0.25085099999999999</v>
+        <v>0.52131000000000005</v>
       </c>
       <c r="I861" s="1">
-        <v>3.7420000000000001E-3</v>
+        <v>8.2159999999999993E-3</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.2">
@@ -25945,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="E862">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F862" t="s">
         <v>10</v>
@@ -25954,10 +25966,10 @@
         <v>18</v>
       </c>
       <c r="H862">
-        <v>0.52131000000000005</v>
+        <v>0.334596</v>
       </c>
       <c r="I862" s="1">
-        <v>8.2159999999999993E-3</v>
+        <v>2.9480000000000001E-3</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.2">
@@ -25974,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="E863">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F863" t="s">
         <v>10</v>
@@ -25983,10 +25995,10 @@
         <v>18</v>
       </c>
       <c r="H863">
-        <v>0.334596</v>
+        <v>3.9479E-2</v>
       </c>
       <c r="I863" s="1">
-        <v>2.9480000000000001E-3</v>
+        <v>6.2000000000000003E-5</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.2">
@@ -26003,7 +26015,7 @@
         <v>1</v>
       </c>
       <c r="E864">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F864" t="s">
         <v>10</v>
@@ -26012,10 +26024,10 @@
         <v>18</v>
       </c>
       <c r="H864">
-        <v>3.9479E-2</v>
+        <v>7.4684E-2</v>
       </c>
       <c r="I864" s="1">
-        <v>6.2000000000000003E-5</v>
+        <v>1.3200000000000001E-4</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.2">
@@ -26032,7 +26044,7 @@
         <v>1</v>
       </c>
       <c r="E865">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F865" t="s">
         <v>10</v>
@@ -26041,10 +26053,10 @@
         <v>18</v>
       </c>
       <c r="H865">
-        <v>7.4684E-2</v>
+        <v>5.9298999999999998E-2</v>
       </c>
       <c r="I865" s="1">
-        <v>1.3200000000000001E-4</v>
+        <v>2.2900000000000001E-4</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.2">
@@ -26061,7 +26073,7 @@
         <v>1</v>
       </c>
       <c r="E866">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F866" t="s">
         <v>10</v>
@@ -26070,10 +26082,10 @@
         <v>18</v>
       </c>
       <c r="H866">
-        <v>5.9298999999999998E-2</v>
+        <v>5.4835000000000002E-2</v>
       </c>
       <c r="I866" s="1">
-        <v>2.2900000000000001E-4</v>
+        <v>1.6100000000000001E-4</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.2">
@@ -26090,7 +26102,7 @@
         <v>1</v>
       </c>
       <c r="E867">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F867" t="s">
         <v>10</v>
@@ -26099,10 +26111,10 @@
         <v>18</v>
       </c>
       <c r="H867">
-        <v>5.4835000000000002E-2</v>
+        <v>0.16350200000000001</v>
       </c>
       <c r="I867" s="1">
-        <v>1.6100000000000001E-4</v>
+        <v>1.31E-3</v>
       </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.2">
@@ -26119,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="E868">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F868" t="s">
         <v>10</v>
@@ -26128,10 +26140,10 @@
         <v>18</v>
       </c>
       <c r="H868">
-        <v>0.16350200000000001</v>
+        <v>0.70467199999999997</v>
       </c>
       <c r="I868" s="1">
-        <v>1.31E-3</v>
+        <v>8.6180000000000007E-3</v>
       </c>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.2">
@@ -26148,7 +26160,7 @@
         <v>1</v>
       </c>
       <c r="E869">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F869" t="s">
         <v>10</v>
@@ -26157,10 +26169,10 @@
         <v>18</v>
       </c>
       <c r="H869">
-        <v>0.70467199999999997</v>
+        <v>0.205738</v>
       </c>
       <c r="I869" s="1">
-        <v>8.6180000000000007E-3</v>
+        <v>1.5870000000000001E-3</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.2">
@@ -26177,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="E870">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F870" t="s">
         <v>10</v>
@@ -26186,10 +26198,10 @@
         <v>18</v>
       </c>
       <c r="H870">
-        <v>0.205738</v>
+        <v>0.63551400000000002</v>
       </c>
       <c r="I870" s="1">
-        <v>1.5870000000000001E-3</v>
+        <v>1.6095999999999999E-2</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.2">
@@ -26206,7 +26218,7 @@
         <v>1</v>
       </c>
       <c r="E871">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F871" t="s">
         <v>10</v>
@@ -26215,10 +26227,10 @@
         <v>18</v>
       </c>
       <c r="H871">
-        <v>0.63551400000000002</v>
+        <v>2.101626</v>
       </c>
       <c r="I871" s="1">
-        <v>1.6095999999999999E-2</v>
+        <v>3.8481000000000001E-2</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.2">
@@ -26235,7 +26247,7 @@
         <v>1</v>
       </c>
       <c r="E872">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F872" t="s">
         <v>10</v>
@@ -26244,10 +26256,10 @@
         <v>18</v>
       </c>
       <c r="H872">
-        <v>2.101626</v>
+        <v>0.131165</v>
       </c>
       <c r="I872" s="1">
-        <v>3.8481000000000001E-2</v>
+        <v>8.4500000000000005E-4</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.2">
@@ -26264,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="E873">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F873" t="s">
         <v>10</v>
@@ -26273,10 +26285,10 @@
         <v>18</v>
       </c>
       <c r="H873">
-        <v>0.131165</v>
+        <v>0.34030300000000002</v>
       </c>
       <c r="I873" s="1">
-        <v>8.4500000000000005E-4</v>
+        <v>3.1979999999999999E-3</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.2">
@@ -26293,7 +26305,7 @@
         <v>1</v>
       </c>
       <c r="E874">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F874" t="s">
         <v>10</v>
@@ -26302,10 +26314,10 @@
         <v>18</v>
       </c>
       <c r="H874">
-        <v>0.34030300000000002</v>
+        <v>0.279277</v>
       </c>
       <c r="I874" s="1">
-        <v>3.1979999999999999E-3</v>
+        <v>3.8249999999999998E-3</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.2">
@@ -26322,7 +26334,7 @@
         <v>1</v>
       </c>
       <c r="E875">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F875" t="s">
         <v>10</v>
@@ -26331,10 +26343,10 @@
         <v>18</v>
       </c>
       <c r="H875">
-        <v>0.279277</v>
+        <v>0.30792199999999997</v>
       </c>
       <c r="I875" s="1">
-        <v>3.8249999999999998E-3</v>
+        <v>2.196E-3</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.2">
@@ -26351,7 +26363,7 @@
         <v>1</v>
       </c>
       <c r="E876">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F876" t="s">
         <v>10</v>
@@ -26360,10 +26372,10 @@
         <v>18</v>
       </c>
       <c r="H876">
-        <v>0.30792199999999997</v>
+        <v>4.3151210000000004</v>
       </c>
       <c r="I876" s="1">
-        <v>2.196E-3</v>
+        <v>5.5826000000000001E-2</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.2">
@@ -26380,7 +26392,7 @@
         <v>1</v>
       </c>
       <c r="E877">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F877" t="s">
         <v>10</v>
@@ -26389,10 +26401,10 @@
         <v>18</v>
       </c>
       <c r="H877">
-        <v>4.3151210000000004</v>
+        <v>0.105756</v>
       </c>
       <c r="I877" s="1">
-        <v>5.5826000000000001E-2</v>
+        <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.2">
@@ -26409,7 +26421,7 @@
         <v>1</v>
       </c>
       <c r="E878">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F878" t="s">
         <v>10</v>
@@ -26418,10 +26430,10 @@
         <v>18</v>
       </c>
       <c r="H878">
-        <v>0.105756</v>
+        <v>7.3603000000000002E-2</v>
       </c>
       <c r="I878" s="1">
-        <v>7.3999999999999999E-4</v>
+        <v>3.8099999999999999E-4</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.2">
@@ -26438,7 +26450,7 @@
         <v>1</v>
       </c>
       <c r="E879">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F879" t="s">
         <v>10</v>
@@ -26447,10 +26459,10 @@
         <v>18</v>
       </c>
       <c r="H879">
-        <v>7.3603000000000002E-2</v>
+        <v>0.136437</v>
       </c>
       <c r="I879" s="1">
-        <v>3.8099999999999999E-4</v>
+        <v>1.2409999999999999E-3</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.2">
@@ -26467,7 +26479,7 @@
         <v>1</v>
       </c>
       <c r="E880">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F880" t="s">
         <v>10</v>
@@ -26476,10 +26488,10 @@
         <v>18</v>
       </c>
       <c r="H880">
-        <v>0.136437</v>
+        <v>0.19070100000000001</v>
       </c>
       <c r="I880" s="1">
-        <v>1.2409999999999999E-3</v>
+        <v>2.552E-3</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.2">
@@ -26496,7 +26508,7 @@
         <v>1</v>
       </c>
       <c r="E881">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F881" t="s">
         <v>10</v>
@@ -26505,10 +26517,10 @@
         <v>18</v>
       </c>
       <c r="H881">
-        <v>0.19070100000000001</v>
+        <v>0.22293199999999999</v>
       </c>
       <c r="I881" s="1">
-        <v>2.552E-3</v>
+        <v>1.869E-3</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.2">
@@ -26525,7 +26537,7 @@
         <v>1</v>
       </c>
       <c r="E882">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F882" t="s">
         <v>10</v>
@@ -26534,10 +26546,10 @@
         <v>18</v>
       </c>
       <c r="H882">
-        <v>0.22293199999999999</v>
+        <v>5.4592000000000002E-2</v>
       </c>
       <c r="I882" s="1">
-        <v>1.869E-3</v>
+        <v>2.13E-4</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.2">
@@ -26554,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="E883">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F883" t="s">
         <v>10</v>
@@ -26563,10 +26575,10 @@
         <v>18</v>
       </c>
       <c r="H883">
-        <v>5.4592000000000002E-2</v>
+        <v>1.123494</v>
       </c>
       <c r="I883" s="1">
-        <v>2.13E-4</v>
+        <v>2.1940999999999999E-2</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.2">
@@ -26583,7 +26595,7 @@
         <v>1</v>
       </c>
       <c r="E884">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F884" t="s">
         <v>10</v>
@@ -26592,10 +26604,10 @@
         <v>18</v>
       </c>
       <c r="H884">
-        <v>1.123494</v>
+        <v>0.352632</v>
       </c>
       <c r="I884" s="1">
-        <v>2.1940999999999999E-2</v>
+        <v>2.3869999999999998E-3</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.2">
@@ -26612,7 +26624,7 @@
         <v>1</v>
       </c>
       <c r="E885">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F885" t="s">
         <v>10</v>
@@ -26621,10 +26633,10 @@
         <v>18</v>
       </c>
       <c r="H885">
-        <v>0.352632</v>
+        <v>1.3359179999999999</v>
       </c>
       <c r="I885" s="1">
-        <v>2.3869999999999998E-3</v>
+        <v>5.0825000000000002E-2</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.2">
@@ -26641,7 +26653,7 @@
         <v>1</v>
       </c>
       <c r="E886">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F886" t="s">
         <v>10</v>
@@ -26650,10 +26662,10 @@
         <v>18</v>
       </c>
       <c r="H886">
-        <v>1.3359179999999999</v>
+        <v>7.5868000000000005E-2</v>
       </c>
       <c r="I886" s="1">
-        <v>5.0825000000000002E-2</v>
+        <v>1.7699999999999999E-4</v>
       </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.2">
@@ -26670,7 +26682,7 @@
         <v>1</v>
       </c>
       <c r="E887">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F887" t="s">
         <v>10</v>
@@ -26679,10 +26691,10 @@
         <v>18</v>
       </c>
       <c r="H887">
-        <v>7.5868000000000005E-2</v>
+        <v>1.9189480000000001</v>
       </c>
       <c r="I887" s="1">
-        <v>1.7699999999999999E-4</v>
+        <v>7.1278999999999995E-2</v>
       </c>
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.2">
@@ -26699,7 +26711,7 @@
         <v>1</v>
       </c>
       <c r="E888">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F888" t="s">
         <v>10</v>
@@ -26708,10 +26720,10 @@
         <v>18</v>
       </c>
       <c r="H888">
-        <v>1.9189480000000001</v>
+        <v>0.77960399999999996</v>
       </c>
       <c r="I888" s="1">
-        <v>7.1278999999999995E-2</v>
+        <v>4.437E-3</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.2">
@@ -26728,7 +26740,7 @@
         <v>1</v>
       </c>
       <c r="E889">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F889" t="s">
         <v>10</v>
@@ -26737,10 +26749,10 @@
         <v>18</v>
       </c>
       <c r="H889">
-        <v>0.77960399999999996</v>
+        <v>0.88154900000000003</v>
       </c>
       <c r="I889" s="1">
-        <v>4.437E-3</v>
+        <v>8.9890000000000005E-3</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.2">
@@ -26757,7 +26769,7 @@
         <v>1</v>
       </c>
       <c r="E890">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F890" t="s">
         <v>10</v>
@@ -26766,10 +26778,10 @@
         <v>18</v>
       </c>
       <c r="H890">
-        <v>0.88154900000000003</v>
+        <v>0.57087100000000002</v>
       </c>
       <c r="I890" s="1">
-        <v>8.9890000000000005E-3</v>
+        <v>1.7427000000000002E-2</v>
       </c>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.2">
@@ -26786,7 +26798,7 @@
         <v>1</v>
       </c>
       <c r="E891">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F891" t="s">
         <v>10</v>
@@ -26795,10 +26807,10 @@
         <v>18</v>
       </c>
       <c r="H891">
-        <v>0.57087100000000002</v>
+        <v>2.5542850000000001</v>
       </c>
       <c r="I891" s="1">
-        <v>1.7427000000000002E-2</v>
+        <v>3.4229000000000002E-2</v>
       </c>
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.2">
@@ -26815,7 +26827,7 @@
         <v>1</v>
       </c>
       <c r="E892">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F892" t="s">
         <v>10</v>
@@ -26824,10 +26836,10 @@
         <v>18</v>
       </c>
       <c r="H892">
-        <v>2.5542850000000001</v>
+        <v>0.30299900000000002</v>
       </c>
       <c r="I892" s="1">
-        <v>3.4229000000000002E-2</v>
+        <v>2.7659999999999998E-3</v>
       </c>
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.2">
@@ -26844,7 +26856,7 @@
         <v>1</v>
       </c>
       <c r="E893">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F893" t="s">
         <v>10</v>
@@ -26853,10 +26865,10 @@
         <v>18</v>
       </c>
       <c r="H893">
-        <v>0.30299900000000002</v>
+        <v>0.48252899999999999</v>
       </c>
       <c r="I893" s="1">
-        <v>2.7659999999999998E-3</v>
+        <v>6.0650000000000001E-3</v>
       </c>
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.2">
@@ -26873,7 +26885,7 @@
         <v>1</v>
       </c>
       <c r="E894">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F894" t="s">
         <v>10</v>
@@ -26882,10 +26894,10 @@
         <v>18</v>
       </c>
       <c r="H894">
-        <v>0.48252899999999999</v>
+        <v>0.29388999999999998</v>
       </c>
       <c r="I894" s="1">
-        <v>6.0650000000000001E-3</v>
+        <v>3.539E-3</v>
       </c>
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.2">
@@ -26902,7 +26914,7 @@
         <v>1</v>
       </c>
       <c r="E895">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F895" t="s">
         <v>10</v>
@@ -26911,10 +26923,10 @@
         <v>18</v>
       </c>
       <c r="H895">
-        <v>0.29388999999999998</v>
+        <v>0.30449700000000002</v>
       </c>
       <c r="I895" s="1">
-        <v>3.539E-3</v>
+        <v>3.0760000000000002E-3</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.2">
@@ -26931,7 +26943,7 @@
         <v>1</v>
       </c>
       <c r="E896">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F896" t="s">
         <v>10</v>
@@ -26940,10 +26952,10 @@
         <v>18</v>
       </c>
       <c r="H896">
-        <v>0.30449700000000002</v>
+        <v>8.0903000000000003E-2</v>
       </c>
       <c r="I896" s="1">
-        <v>3.0760000000000002E-3</v>
+        <v>3.9199999999999999E-4</v>
       </c>
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.2">
@@ -26960,7 +26972,7 @@
         <v>1</v>
       </c>
       <c r="E897">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F897" t="s">
         <v>10</v>
@@ -26969,10 +26981,10 @@
         <v>18</v>
       </c>
       <c r="H897">
-        <v>8.0903000000000003E-2</v>
+        <v>2.2038090000000001</v>
       </c>
       <c r="I897" s="1">
-        <v>3.9199999999999999E-4</v>
+        <v>2.9925E-2</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.2">
@@ -26989,7 +27001,7 @@
         <v>1</v>
       </c>
       <c r="E898">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F898" t="s">
         <v>10</v>
@@ -26998,10 +27010,10 @@
         <v>18</v>
       </c>
       <c r="H898">
-        <v>2.2038090000000001</v>
+        <v>0.70377400000000001</v>
       </c>
       <c r="I898" s="1">
-        <v>2.9925E-2</v>
+        <v>5.9259999999999998E-3</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.2">
@@ -27018,7 +27030,7 @@
         <v>1</v>
       </c>
       <c r="E899">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F899" t="s">
         <v>10</v>
@@ -27027,10 +27039,10 @@
         <v>18</v>
       </c>
       <c r="H899">
-        <v>0.70377400000000001</v>
+        <v>0.200345</v>
       </c>
       <c r="I899" s="1">
-        <v>5.9259999999999998E-3</v>
+        <v>2.702E-3</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.2">
@@ -27047,7 +27059,7 @@
         <v>1</v>
       </c>
       <c r="E900">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F900" t="s">
         <v>10</v>
@@ -27056,10 +27068,10 @@
         <v>18</v>
       </c>
       <c r="H900">
-        <v>0.200345</v>
+        <v>0.33187100000000003</v>
       </c>
       <c r="I900" s="1">
-        <v>2.702E-3</v>
+        <v>4.8739999999999999E-3</v>
       </c>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.2">
@@ -27076,7 +27088,7 @@
         <v>1</v>
       </c>
       <c r="E901">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F901" t="s">
         <v>10</v>
@@ -27085,10 +27097,10 @@
         <v>18</v>
       </c>
       <c r="H901">
-        <v>0.33187100000000003</v>
+        <v>0.78648899999999999</v>
       </c>
       <c r="I901" s="1">
-        <v>4.8739999999999999E-3</v>
+        <v>8.9650000000000007E-3</v>
       </c>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.2">
@@ -27105,7 +27117,7 @@
         <v>1</v>
       </c>
       <c r="E902">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F902" t="s">
         <v>10</v>
@@ -27114,10 +27126,10 @@
         <v>18</v>
       </c>
       <c r="H902">
-        <v>0.78648899999999999</v>
+        <v>0.160634</v>
       </c>
       <c r="I902" s="1">
-        <v>8.9650000000000007E-3</v>
+        <v>1.6689999999999999E-3</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.2">
@@ -27134,7 +27146,7 @@
         <v>1</v>
       </c>
       <c r="E903">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F903" t="s">
         <v>10</v>
@@ -27143,10 +27155,10 @@
         <v>18</v>
       </c>
       <c r="H903">
-        <v>0.160634</v>
+        <v>0.148261</v>
       </c>
       <c r="I903" s="1">
-        <v>1.6689999999999999E-3</v>
+        <v>1.3079999999999999E-3</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.2">
@@ -27163,7 +27175,7 @@
         <v>1</v>
       </c>
       <c r="E904">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F904" t="s">
         <v>10</v>
@@ -27172,10 +27184,10 @@
         <v>18</v>
       </c>
       <c r="H904">
-        <v>0.148261</v>
+        <v>0.58665999999999996</v>
       </c>
       <c r="I904" s="1">
-        <v>1.3079999999999999E-3</v>
+        <v>8.2869999999999992E-3</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
@@ -27192,7 +27204,7 @@
         <v>1</v>
       </c>
       <c r="E905">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F905" t="s">
         <v>10</v>
@@ -27201,10 +27213,10 @@
         <v>18</v>
       </c>
       <c r="H905">
-        <v>0.58665999999999996</v>
+        <v>1.03074</v>
       </c>
       <c r="I905" s="1">
-        <v>8.2869999999999992E-3</v>
+        <v>3.3041000000000001E-2</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.2">
@@ -27221,7 +27233,7 @@
         <v>1</v>
       </c>
       <c r="E906">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F906" t="s">
         <v>10</v>
@@ -27230,10 +27242,10 @@
         <v>18</v>
       </c>
       <c r="H906">
-        <v>1.03074</v>
+        <v>0.32027899999999998</v>
       </c>
       <c r="I906" s="1">
-        <v>3.3041000000000001E-2</v>
+        <v>3.2369999999999999E-3</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.2">
@@ -27250,7 +27262,7 @@
         <v>1</v>
       </c>
       <c r="E907">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F907" t="s">
         <v>10</v>
@@ -27259,10 +27271,10 @@
         <v>18</v>
       </c>
       <c r="H907">
-        <v>0.32027899999999998</v>
+        <v>2.5036320000000001</v>
       </c>
       <c r="I907" s="1">
-        <v>3.2369999999999999E-3</v>
+        <v>4.5881999999999999E-2</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.2">
@@ -27279,7 +27291,7 @@
         <v>1</v>
       </c>
       <c r="E908">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="F908" t="s">
         <v>10</v>
@@ -27288,10 +27300,10 @@
         <v>18</v>
       </c>
       <c r="H908">
-        <v>2.5036320000000001</v>
+        <v>0.97515300000000005</v>
       </c>
       <c r="I908" s="1">
-        <v>4.5881999999999999E-2</v>
+        <v>2.3168000000000001E-2</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.2">
@@ -27308,19 +27320,19 @@
         <v>1</v>
       </c>
       <c r="E909">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="F909" t="s">
         <v>10</v>
       </c>
       <c r="G909" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H909">
-        <v>0.97515300000000005</v>
+        <v>1.268961</v>
       </c>
       <c r="I909" s="1">
-        <v>2.3168000000000001E-2</v>
+        <v>2.8951000000000001E-2</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.2">
@@ -27337,7 +27349,7 @@
         <v>1</v>
       </c>
       <c r="E910">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="F910" t="s">
         <v>10</v>
@@ -27346,10 +27358,10 @@
         <v>19</v>
       </c>
       <c r="H910">
-        <v>1.268961</v>
+        <v>2.4032740000000001</v>
       </c>
       <c r="I910" s="1">
-        <v>2.8951000000000001E-2</v>
+        <v>0.16978799999999999</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.2">
@@ -27366,19 +27378,19 @@
         <v>1</v>
       </c>
       <c r="E911">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="F911" t="s">
         <v>10</v>
       </c>
       <c r="G911" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H911">
-        <v>2.4032740000000001</v>
+        <v>0.640683</v>
       </c>
       <c r="I911" s="1">
-        <v>0.16978799999999999</v>
+        <v>2.3897000000000002E-2</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.2">
@@ -27395,7 +27407,7 @@
         <v>1</v>
       </c>
       <c r="E912">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F912" t="s">
         <v>10</v>
@@ -27404,10 +27416,10 @@
         <v>20</v>
       </c>
       <c r="H912">
-        <v>0.640683</v>
+        <v>0.60978900000000003</v>
       </c>
       <c r="I912" s="1">
-        <v>2.3897000000000002E-2</v>
+        <v>2.0216000000000001E-2</v>
       </c>
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.2">
@@ -27424,7 +27436,7 @@
         <v>1</v>
       </c>
       <c r="E913">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F913" t="s">
         <v>10</v>
@@ -27433,10 +27445,10 @@
         <v>20</v>
       </c>
       <c r="H913">
-        <v>0.60978900000000003</v>
+        <v>0.98537600000000003</v>
       </c>
       <c r="I913" s="1">
-        <v>2.0216000000000001E-2</v>
+        <v>5.5714E-2</v>
       </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.2">
@@ -27453,7 +27465,7 @@
         <v>1</v>
       </c>
       <c r="E914">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F914" t="s">
         <v>10</v>
@@ -27462,10 +27474,10 @@
         <v>20</v>
       </c>
       <c r="H914">
-        <v>0.98537600000000003</v>
+        <v>0.51372700000000004</v>
       </c>
       <c r="I914" s="1">
-        <v>5.5714E-2</v>
+        <v>9.0139999999999994E-3</v>
       </c>
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.2">
@@ -27482,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="E915">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F915" t="s">
         <v>10</v>
@@ -27491,10 +27503,10 @@
         <v>20</v>
       </c>
       <c r="H915">
-        <v>0.51372700000000004</v>
+        <v>0.19708400000000001</v>
       </c>
       <c r="I915" s="1">
-        <v>9.0139999999999994E-3</v>
+        <v>2.2880000000000001E-3</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
@@ -27511,7 +27523,7 @@
         <v>1</v>
       </c>
       <c r="E916">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F916" t="s">
         <v>10</v>
@@ -27520,10 +27532,10 @@
         <v>20</v>
       </c>
       <c r="H916">
-        <v>0.19708400000000001</v>
+        <v>0.83342400000000005</v>
       </c>
       <c r="I916" s="1">
-        <v>2.2880000000000001E-3</v>
+        <v>1.9937E-2</v>
       </c>
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.2">
@@ -27540,7 +27552,7 @@
         <v>1</v>
       </c>
       <c r="E917">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F917" t="s">
         <v>10</v>
@@ -27549,10 +27561,10 @@
         <v>20</v>
       </c>
       <c r="H917">
-        <v>0.83342400000000005</v>
+        <v>0.92584900000000003</v>
       </c>
       <c r="I917" s="1">
-        <v>1.9937E-2</v>
+        <v>2.2867999999999999E-2</v>
       </c>
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.2">
@@ -27569,7 +27581,7 @@
         <v>1</v>
       </c>
       <c r="E918">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F918" t="s">
         <v>10</v>
@@ -27578,10 +27590,10 @@
         <v>20</v>
       </c>
       <c r="H918">
-        <v>0.92584900000000003</v>
+        <v>1.5727089999999999</v>
       </c>
       <c r="I918" s="1">
-        <v>2.2867999999999999E-2</v>
+        <v>7.8698000000000004E-2</v>
       </c>
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.2">
@@ -27598,7 +27610,7 @@
         <v>1</v>
       </c>
       <c r="E919">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F919" t="s">
         <v>10</v>
@@ -27607,10 +27619,10 @@
         <v>20</v>
       </c>
       <c r="H919">
-        <v>1.5727089999999999</v>
+        <v>0.54833299999999996</v>
       </c>
       <c r="I919" s="1">
-        <v>7.8698000000000004E-2</v>
+        <v>1.2848E-2</v>
       </c>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.2">
@@ -27627,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="E920">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F920" t="s">
         <v>10</v>
@@ -27636,10 +27648,10 @@
         <v>20</v>
       </c>
       <c r="H920">
-        <v>0.54833299999999996</v>
+        <v>0.95013999999999998</v>
       </c>
       <c r="I920" s="1">
-        <v>1.2848E-2</v>
+        <v>4.7324999999999999E-2</v>
       </c>
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.2">
@@ -27656,7 +27668,7 @@
         <v>1</v>
       </c>
       <c r="E921">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F921" t="s">
         <v>10</v>
@@ -27665,10 +27677,10 @@
         <v>20</v>
       </c>
       <c r="H921">
-        <v>0.95013999999999998</v>
+        <v>0.62992999999999999</v>
       </c>
       <c r="I921" s="1">
-        <v>4.7324999999999999E-2</v>
+        <v>1.9564999999999999E-2</v>
       </c>
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.2">
@@ -27685,7 +27697,7 @@
         <v>1</v>
       </c>
       <c r="E922">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F922" t="s">
         <v>10</v>
@@ -27694,10 +27706,10 @@
         <v>20</v>
       </c>
       <c r="H922">
-        <v>0.62992999999999999</v>
+        <v>0.65073899999999996</v>
       </c>
       <c r="I922" s="1">
-        <v>1.9564999999999999E-2</v>
+        <v>2.0295000000000001E-2</v>
       </c>
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.2">
@@ -27714,7 +27726,7 @@
         <v>1</v>
       </c>
       <c r="E923">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F923" t="s">
         <v>10</v>
@@ -27723,10 +27735,10 @@
         <v>20</v>
       </c>
       <c r="H923">
-        <v>0.65073899999999996</v>
+        <v>2.0252240000000001</v>
       </c>
       <c r="I923" s="1">
-        <v>2.0295000000000001E-2</v>
+        <v>9.7632999999999998E-2</v>
       </c>
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.2">
@@ -27743,7 +27755,7 @@
         <v>1</v>
       </c>
       <c r="E924">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F924" t="s">
         <v>10</v>
@@ -27752,10 +27764,10 @@
         <v>20</v>
       </c>
       <c r="H924">
-        <v>2.0252240000000001</v>
+        <v>1.6943109999999999</v>
       </c>
       <c r="I924" s="1">
-        <v>9.7632999999999998E-2</v>
+        <v>6.3135999999999998E-2</v>
       </c>
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.2">
@@ -27772,7 +27784,7 @@
         <v>1</v>
       </c>
       <c r="E925">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F925" t="s">
         <v>10</v>
@@ -27781,10 +27793,10 @@
         <v>20</v>
       </c>
       <c r="H925">
-        <v>1.6943109999999999</v>
+        <v>0.67077500000000001</v>
       </c>
       <c r="I925" s="1">
-        <v>6.3135999999999998E-2</v>
+        <v>1.0315E-2</v>
       </c>
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.2">
@@ -27801,7 +27813,7 @@
         <v>1</v>
       </c>
       <c r="E926">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F926" t="s">
         <v>10</v>
@@ -27810,10 +27822,10 @@
         <v>20</v>
       </c>
       <c r="H926">
-        <v>0.67077500000000001</v>
+        <v>1.0186200000000001</v>
       </c>
       <c r="I926" s="1">
-        <v>1.0315E-2</v>
+        <v>7.1196999999999996E-2</v>
       </c>
     </row>
     <row r="927" spans="1:9" x14ac:dyDescent="0.2">
@@ -27830,7 +27842,7 @@
         <v>1</v>
       </c>
       <c r="E927">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F927" t="s">
         <v>10</v>
@@ -27839,10 +27851,10 @@
         <v>20</v>
       </c>
       <c r="H927">
-        <v>1.0186200000000001</v>
+        <v>9.6089490000000009</v>
       </c>
       <c r="I927" s="1">
-        <v>7.1196999999999996E-2</v>
+        <v>1.129165</v>
       </c>
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.2">
@@ -27859,7 +27871,7 @@
         <v>1</v>
       </c>
       <c r="E928">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F928" t="s">
         <v>10</v>
@@ -27868,10 +27880,10 @@
         <v>20</v>
       </c>
       <c r="H928">
-        <v>9.6089490000000009</v>
+        <v>1.549261</v>
       </c>
       <c r="I928" s="1">
-        <v>1.129165</v>
+        <v>5.6848999999999997E-2</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.2">
@@ -27888,7 +27900,7 @@
         <v>1</v>
       </c>
       <c r="E929">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F929" t="s">
         <v>10</v>
@@ -27897,10 +27909,10 @@
         <v>20</v>
       </c>
       <c r="H929">
-        <v>1.549261</v>
+        <v>2.5774859999999999</v>
       </c>
       <c r="I929" s="1">
-        <v>5.6848999999999997E-2</v>
+        <v>9.8963999999999996E-2</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
@@ -27917,7 +27929,7 @@
         <v>1</v>
       </c>
       <c r="E930">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F930" t="s">
         <v>10</v>
@@ -27926,10 +27938,10 @@
         <v>20</v>
       </c>
       <c r="H930">
-        <v>2.5774859999999999</v>
+        <v>0.16988900000000001</v>
       </c>
       <c r="I930" s="1">
-        <v>9.8963999999999996E-2</v>
+        <v>1.0150000000000001E-3</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.2">
@@ -27946,7 +27958,7 @@
         <v>1</v>
       </c>
       <c r="E931">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F931" t="s">
         <v>10</v>
@@ -27955,10 +27967,10 @@
         <v>20</v>
       </c>
       <c r="H931">
-        <v>0.16988900000000001</v>
+        <v>0.22444500000000001</v>
       </c>
       <c r="I931" s="1">
-        <v>1.0150000000000001E-3</v>
+        <v>2.7880000000000001E-3</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.2">
@@ -27975,7 +27987,7 @@
         <v>1</v>
       </c>
       <c r="E932">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F932" t="s">
         <v>10</v>
@@ -27984,10 +27996,10 @@
         <v>20</v>
       </c>
       <c r="H932">
-        <v>0.22444500000000001</v>
+        <v>0.35903400000000002</v>
       </c>
       <c r="I932" s="1">
-        <v>2.7880000000000001E-3</v>
+        <v>4.3090000000000003E-3</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.2">
@@ -28004,7 +28016,7 @@
         <v>1</v>
       </c>
       <c r="E933">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F933" t="s">
         <v>10</v>
@@ -28013,10 +28025,10 @@
         <v>20</v>
       </c>
       <c r="H933">
-        <v>0.35903400000000002</v>
+        <v>0.74099499999999996</v>
       </c>
       <c r="I933" s="1">
-        <v>4.3090000000000003E-3</v>
+        <v>1.9054999999999999E-2</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.2">
@@ -28033,7 +28045,7 @@
         <v>1</v>
       </c>
       <c r="E934">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F934" t="s">
         <v>10</v>
@@ -28042,10 +28054,10 @@
         <v>20</v>
       </c>
       <c r="H934">
-        <v>0.74099499999999996</v>
+        <v>0.27728399999999997</v>
       </c>
       <c r="I934" s="1">
-        <v>1.9054999999999999E-2</v>
+        <v>4.62E-3</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.2">
@@ -28062,7 +28074,7 @@
         <v>1</v>
       </c>
       <c r="E935">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F935" t="s">
         <v>10</v>
@@ -28071,10 +28083,10 @@
         <v>20</v>
       </c>
       <c r="H935">
-        <v>0.27728399999999997</v>
+        <v>0.22650600000000001</v>
       </c>
       <c r="I935" s="1">
-        <v>4.62E-3</v>
+        <v>3.3679999999999999E-3</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.2">
@@ -28091,7 +28103,7 @@
         <v>1</v>
       </c>
       <c r="E936">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F936" t="s">
         <v>10</v>
@@ -28100,10 +28112,10 @@
         <v>20</v>
       </c>
       <c r="H936">
-        <v>0.22650600000000001</v>
+        <v>0.37760300000000002</v>
       </c>
       <c r="I936" s="1">
-        <v>3.3679999999999999E-3</v>
+        <v>7.5009999999999999E-3</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.2">
@@ -28120,7 +28132,7 @@
         <v>1</v>
       </c>
       <c r="E937">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F937" t="s">
         <v>10</v>
@@ -28129,10 +28141,10 @@
         <v>20</v>
       </c>
       <c r="H937">
-        <v>0.37760300000000002</v>
+        <v>1.081825</v>
       </c>
       <c r="I937" s="1">
-        <v>7.5009999999999999E-3</v>
+        <v>3.5601000000000001E-2</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.2">
@@ -28149,7 +28161,7 @@
         <v>1</v>
       </c>
       <c r="E938">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F938" t="s">
         <v>10</v>
@@ -28158,10 +28170,10 @@
         <v>20</v>
       </c>
       <c r="H938">
-        <v>1.081825</v>
+        <v>0.608877</v>
       </c>
       <c r="I938" s="1">
-        <v>3.5601000000000001E-2</v>
+        <v>1.7772E-2</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
@@ -28178,7 +28190,7 @@
         <v>1</v>
       </c>
       <c r="E939">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F939" t="s">
         <v>10</v>
@@ -28187,10 +28199,10 @@
         <v>20</v>
       </c>
       <c r="H939">
-        <v>0.608877</v>
+        <v>0.87510200000000005</v>
       </c>
       <c r="I939" s="1">
-        <v>1.7772E-2</v>
+        <v>4.1262E-2</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.2">
@@ -28207,7 +28219,7 @@
         <v>1</v>
       </c>
       <c r="E940">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F940" t="s">
         <v>10</v>
@@ -28216,10 +28228,10 @@
         <v>20</v>
       </c>
       <c r="H940">
-        <v>0.87510200000000005</v>
+        <v>1.3880760000000001</v>
       </c>
       <c r="I940" s="1">
-        <v>4.1262E-2</v>
+        <v>8.2355999999999999E-2</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.2">
@@ -28236,7 +28248,7 @@
         <v>1</v>
       </c>
       <c r="E941">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F941" t="s">
         <v>10</v>
@@ -28245,10 +28257,10 @@
         <v>20</v>
       </c>
       <c r="H941">
-        <v>1.3880760000000001</v>
+        <v>1.427691</v>
       </c>
       <c r="I941" s="1">
-        <v>8.2355999999999999E-2</v>
+        <v>6.9280999999999995E-2</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.2">
@@ -28265,7 +28277,7 @@
         <v>1</v>
       </c>
       <c r="E942">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F942" t="s">
         <v>10</v>
@@ -28274,10 +28286,10 @@
         <v>20</v>
       </c>
       <c r="H942">
-        <v>1.427691</v>
+        <v>0.57097799999999999</v>
       </c>
       <c r="I942" s="1">
-        <v>6.9280999999999995E-2</v>
+        <v>1.7923999999999999E-2</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.2">
@@ -28294,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="E943">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F943" t="s">
         <v>10</v>
@@ -28303,10 +28315,10 @@
         <v>20</v>
       </c>
       <c r="H943">
-        <v>0.57097799999999999</v>
+        <v>0.76952399999999999</v>
       </c>
       <c r="I943" s="1">
-        <v>1.7923999999999999E-2</v>
+        <v>2.4191000000000001E-2</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.2">
@@ -28323,7 +28335,7 @@
         <v>1</v>
       </c>
       <c r="E944">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F944" t="s">
         <v>10</v>
@@ -28332,10 +28344,10 @@
         <v>20</v>
       </c>
       <c r="H944">
-        <v>0.76952399999999999</v>
+        <v>0.61372899999999997</v>
       </c>
       <c r="I944" s="1">
-        <v>2.4191000000000001E-2</v>
+        <v>2.0795000000000001E-2</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.2">
@@ -28352,7 +28364,7 @@
         <v>1</v>
       </c>
       <c r="E945">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F945" t="s">
         <v>10</v>
@@ -28361,10 +28373,10 @@
         <v>20</v>
       </c>
       <c r="H945">
-        <v>0.61372899999999997</v>
+        <v>0.53</v>
       </c>
       <c r="I945" s="1">
-        <v>2.0795000000000001E-2</v>
+        <v>1.1809E-2</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.2">
@@ -28381,7 +28393,7 @@
         <v>1</v>
       </c>
       <c r="E946">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F946" t="s">
         <v>10</v>
@@ -28390,10 +28402,10 @@
         <v>20</v>
       </c>
       <c r="H946">
-        <v>0.53</v>
+        <v>3.3926180000000001</v>
       </c>
       <c r="I946" s="1">
-        <v>1.1809E-2</v>
+        <v>0.324658</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.2">
@@ -28410,7 +28422,7 @@
         <v>1</v>
       </c>
       <c r="E947">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F947" t="s">
         <v>10</v>
@@ -28419,10 +28431,10 @@
         <v>20</v>
       </c>
       <c r="H947">
-        <v>3.3926180000000001</v>
+        <v>0.54045699999999997</v>
       </c>
       <c r="I947" s="1">
-        <v>0.324658</v>
+        <v>1.8294999999999999E-2</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
@@ -28439,7 +28451,7 @@
         <v>1</v>
       </c>
       <c r="E948">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F948" t="s">
         <v>10</v>
@@ -28448,10 +28460,10 @@
         <v>20</v>
       </c>
       <c r="H948">
-        <v>0.54045699999999997</v>
+        <v>1.297801</v>
       </c>
       <c r="I948" s="1">
-        <v>1.8294999999999999E-2</v>
+        <v>8.0755999999999994E-2</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.2">
@@ -28468,7 +28480,7 @@
         <v>1</v>
       </c>
       <c r="E949">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F949" t="s">
         <v>10</v>
@@ -28477,10 +28489,10 @@
         <v>20</v>
       </c>
       <c r="H949">
-        <v>1.297801</v>
+        <v>0.91253799999999996</v>
       </c>
       <c r="I949" s="1">
-        <v>8.0755999999999994E-2</v>
+        <v>2.7033000000000001E-2</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.2">
@@ -28497,7 +28509,7 @@
         <v>1</v>
       </c>
       <c r="E950">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F950" t="s">
         <v>10</v>
@@ -28506,10 +28518,10 @@
         <v>20</v>
       </c>
       <c r="H950">
-        <v>0.91253799999999996</v>
+        <v>0.55856300000000003</v>
       </c>
       <c r="I950" s="1">
-        <v>2.7033000000000001E-2</v>
+        <v>1.4695E-2</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.2">
@@ -28526,7 +28538,7 @@
         <v>1</v>
       </c>
       <c r="E951">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F951" t="s">
         <v>10</v>
@@ -28535,10 +28547,10 @@
         <v>20</v>
       </c>
       <c r="H951">
-        <v>0.55856300000000003</v>
+        <v>0.32678200000000002</v>
       </c>
       <c r="I951" s="1">
-        <v>1.4695E-2</v>
+        <v>4.9370000000000004E-3</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.2">
@@ -28555,7 +28567,7 @@
         <v>1</v>
       </c>
       <c r="E952">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F952" t="s">
         <v>10</v>
@@ -28564,10 +28576,10 @@
         <v>20</v>
       </c>
       <c r="H952">
-        <v>0.32678200000000002</v>
+        <v>0.388129</v>
       </c>
       <c r="I952" s="1">
-        <v>4.9370000000000004E-3</v>
+        <v>6.0049999999999999E-3</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.2">
@@ -28584,7 +28596,7 @@
         <v>1</v>
       </c>
       <c r="E953">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F953" t="s">
         <v>10</v>
@@ -28593,10 +28605,10 @@
         <v>20</v>
       </c>
       <c r="H953">
-        <v>0.388129</v>
+        <v>1.0818829999999999</v>
       </c>
       <c r="I953" s="1">
-        <v>6.0049999999999999E-3</v>
+        <v>3.4652000000000002E-2</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.2">
@@ -28613,7 +28625,7 @@
         <v>1</v>
       </c>
       <c r="E954">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F954" t="s">
         <v>10</v>
@@ -28622,10 +28634,10 @@
         <v>20</v>
       </c>
       <c r="H954">
-        <v>1.0818829999999999</v>
+        <v>0.45505299999999999</v>
       </c>
       <c r="I954" s="1">
-        <v>3.4652000000000002E-2</v>
+        <v>7.5830000000000003E-3</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
@@ -28642,7 +28654,7 @@
         <v>1</v>
       </c>
       <c r="E955">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F955" t="s">
         <v>10</v>
@@ -28651,10 +28663,10 @@
         <v>20</v>
       </c>
       <c r="H955">
-        <v>0.45505299999999999</v>
+        <v>1.247584</v>
       </c>
       <c r="I955" s="1">
-        <v>7.5830000000000003E-3</v>
+        <v>6.1913999999999997E-2</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
@@ -28671,7 +28683,7 @@
         <v>1</v>
       </c>
       <c r="E956">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F956" t="s">
         <v>10</v>
@@ -28680,10 +28692,10 @@
         <v>20</v>
       </c>
       <c r="H956">
-        <v>1.247584</v>
+        <v>2.561652</v>
       </c>
       <c r="I956" s="1">
-        <v>6.1913999999999997E-2</v>
+        <v>0.16036500000000001</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
@@ -28700,7 +28712,7 @@
         <v>1</v>
       </c>
       <c r="E957">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F957" t="s">
         <v>10</v>
@@ -28709,10 +28721,10 @@
         <v>20</v>
       </c>
       <c r="H957">
-        <v>2.561652</v>
+        <v>0.302149</v>
       </c>
       <c r="I957" s="1">
-        <v>0.16036500000000001</v>
+        <v>5.7759999999999999E-3</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.2">
@@ -28729,7 +28741,7 @@
         <v>1</v>
       </c>
       <c r="E958">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F958" t="s">
         <v>10</v>
@@ -28738,10 +28750,10 @@
         <v>20</v>
       </c>
       <c r="H958">
-        <v>0.302149</v>
+        <v>1.1306419999999999</v>
       </c>
       <c r="I958" s="1">
-        <v>5.7759999999999999E-3</v>
+        <v>2.8032999999999999E-2</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.2">
@@ -28758,7 +28770,7 @@
         <v>1</v>
       </c>
       <c r="E959">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F959" t="s">
         <v>10</v>
@@ -28767,10 +28779,10 @@
         <v>20</v>
       </c>
       <c r="H959">
-        <v>1.1306419999999999</v>
+        <v>1.9827669999999999</v>
       </c>
       <c r="I959" s="1">
-        <v>2.8032999999999999E-2</v>
+        <v>9.3025999999999998E-2</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.2">
@@ -28787,7 +28799,7 @@
         <v>1</v>
       </c>
       <c r="E960">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F960" t="s">
         <v>10</v>
@@ -28796,10 +28808,10 @@
         <v>20</v>
       </c>
       <c r="H960">
-        <v>1.9827669999999999</v>
+        <v>1.638981</v>
       </c>
       <c r="I960" s="1">
-        <v>9.3025999999999998E-2</v>
+        <v>4.3739E-2</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.2">
@@ -28816,7 +28828,7 @@
         <v>1</v>
       </c>
       <c r="E961">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F961" t="s">
         <v>10</v>
@@ -28825,10 +28837,10 @@
         <v>20</v>
       </c>
       <c r="H961">
-        <v>1.638981</v>
+        <v>1.6135470000000001</v>
       </c>
       <c r="I961" s="1">
-        <v>4.3739E-2</v>
+        <v>9.2700000000000005E-2</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.2">
@@ -28845,7 +28857,7 @@
         <v>1</v>
       </c>
       <c r="E962">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F962" t="s">
         <v>10</v>
@@ -28854,10 +28866,10 @@
         <v>20</v>
       </c>
       <c r="H962">
-        <v>1.6135470000000001</v>
+        <v>0.93045999999999995</v>
       </c>
       <c r="I962" s="1">
-        <v>9.2700000000000005E-2</v>
+        <v>4.0154000000000002E-2</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.2">
@@ -28874,7 +28886,7 @@
         <v>1</v>
       </c>
       <c r="E963">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F963" t="s">
         <v>10</v>
@@ -28883,10 +28895,10 @@
         <v>20</v>
       </c>
       <c r="H963">
-        <v>0.93045999999999995</v>
+        <v>1.029736</v>
       </c>
       <c r="I963" s="1">
-        <v>4.0154000000000002E-2</v>
+        <v>4.2235000000000002E-2</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.2">
@@ -28903,7 +28915,7 @@
         <v>1</v>
       </c>
       <c r="E964">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F964" t="s">
         <v>10</v>
@@ -28912,10 +28924,10 @@
         <v>20</v>
       </c>
       <c r="H964">
-        <v>1.029736</v>
+        <v>0.65703</v>
       </c>
       <c r="I964" s="1">
-        <v>4.2235000000000002E-2</v>
+        <v>2.1787000000000001E-2</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.2">
@@ -28932,7 +28944,7 @@
         <v>1</v>
       </c>
       <c r="E965">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F965" t="s">
         <v>10</v>
@@ -28941,10 +28953,10 @@
         <v>20</v>
       </c>
       <c r="H965">
-        <v>0.65703</v>
+        <v>0.65003500000000003</v>
       </c>
       <c r="I965" s="1">
-        <v>2.1787000000000001E-2</v>
+        <v>1.1167E-2</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.2">
@@ -28961,19 +28973,19 @@
         <v>1</v>
       </c>
       <c r="E966">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F966" t="s">
         <v>10</v>
       </c>
       <c r="G966" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H966">
-        <v>0.65003500000000003</v>
+        <v>0.940944</v>
       </c>
       <c r="I966" s="1">
-        <v>1.1167E-2</v>
+        <v>3.9793000000000002E-2</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.2">
@@ -28990,7 +29002,7 @@
         <v>1</v>
       </c>
       <c r="E967">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F967" t="s">
         <v>10</v>
@@ -28999,10 +29011,10 @@
         <v>29</v>
       </c>
       <c r="H967">
-        <v>0.940944</v>
+        <v>0.127272</v>
       </c>
       <c r="I967" s="1">
-        <v>3.9793000000000002E-2</v>
+        <v>8.34E-4</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.2">
@@ -29019,19 +29031,19 @@
         <v>1</v>
       </c>
       <c r="E968">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F968" t="s">
         <v>10</v>
       </c>
       <c r="G968" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H968">
-        <v>0.127272</v>
+        <v>2.5938439999999998</v>
       </c>
       <c r="I968" s="1">
-        <v>8.34E-4</v>
+        <v>0.16906099999999999</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.2">
@@ -29048,7 +29060,7 @@
         <v>1</v>
       </c>
       <c r="E969">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F969" t="s">
         <v>10</v>
@@ -29057,10 +29069,10 @@
         <v>30</v>
       </c>
       <c r="H969">
-        <v>2.5938439999999998</v>
+        <v>1.4333389999999999</v>
       </c>
       <c r="I969" s="1">
-        <v>0.16906099999999999</v>
+        <v>7.2867000000000001E-2</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
@@ -29077,7 +29089,7 @@
         <v>1</v>
       </c>
       <c r="E970">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F970" t="s">
         <v>10</v>
@@ -29086,10 +29098,10 @@
         <v>30</v>
       </c>
       <c r="H970">
-        <v>1.4333389999999999</v>
+        <v>1.951667</v>
       </c>
       <c r="I970" s="1">
-        <v>7.2867000000000001E-2</v>
+        <v>0.151975</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.2">
@@ -29106,7 +29118,7 @@
         <v>1</v>
       </c>
       <c r="E971">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F971" t="s">
         <v>10</v>
@@ -29115,10 +29127,10 @@
         <v>30</v>
       </c>
       <c r="H971">
-        <v>1.951667</v>
+        <v>1.006505</v>
       </c>
       <c r="I971" s="1">
-        <v>0.151975</v>
+        <v>6.3812999999999995E-2</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.2">
@@ -29135,7 +29147,7 @@
         <v>1</v>
       </c>
       <c r="E972">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F972" t="s">
         <v>10</v>
@@ -29144,10 +29156,10 @@
         <v>30</v>
       </c>
       <c r="H972">
-        <v>1.006505</v>
+        <v>1.3273550000000001</v>
       </c>
       <c r="I972" s="1">
-        <v>6.3812999999999995E-2</v>
+        <v>6.7630999999999997E-2</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.2">
@@ -29164,7 +29176,7 @@
         <v>1</v>
       </c>
       <c r="E973">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F973" t="s">
         <v>10</v>
@@ -29173,10 +29185,10 @@
         <v>30</v>
       </c>
       <c r="H973">
-        <v>1.3273550000000001</v>
+        <v>3.5165510000000002</v>
       </c>
       <c r="I973" s="1">
-        <v>6.7630999999999997E-2</v>
+        <v>0.16514999999999999</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.2">
@@ -29193,19 +29205,19 @@
         <v>1</v>
       </c>
       <c r="E974">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F974" t="s">
         <v>10</v>
       </c>
       <c r="G974" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H974">
-        <v>3.5165510000000002</v>
+        <v>0.61914899999999995</v>
       </c>
       <c r="I974" s="1">
-        <v>0.16514999999999999</v>
+        <v>1.2761E-2</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.2">
@@ -29222,19 +29234,19 @@
         <v>1</v>
       </c>
       <c r="E975">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="F975" t="s">
         <v>10</v>
       </c>
       <c r="G975" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H975">
-        <v>0.61914899999999995</v>
+        <v>1.1191770000000001</v>
       </c>
       <c r="I975" s="1">
-        <v>1.2761E-2</v>
+        <v>1.9744999999999999E-2</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.2">
@@ -29251,19 +29263,19 @@
         <v>1</v>
       </c>
       <c r="E976">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="F976" t="s">
         <v>10</v>
       </c>
       <c r="G976" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H976">
-        <v>1.1191770000000001</v>
+        <v>0.82233100000000003</v>
       </c>
       <c r="I976" s="1">
-        <v>1.9744999999999999E-2</v>
+        <v>1.2864E-2</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.2">
@@ -29280,19 +29292,19 @@
         <v>1</v>
       </c>
       <c r="E977">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="F977" t="s">
         <v>10</v>
       </c>
       <c r="G977" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H977">
-        <v>0.82233100000000003</v>
+        <v>0.138539</v>
       </c>
       <c r="I977" s="1">
-        <v>1.2864E-2</v>
+        <v>8.5400000000000005E-4</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.2">
@@ -29309,19 +29321,19 @@
         <v>1</v>
       </c>
       <c r="E978">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F978" t="s">
         <v>10</v>
       </c>
       <c r="G978" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H978">
-        <v>0.138539</v>
+        <v>189.73411899999999</v>
       </c>
       <c r="I978" s="1">
-        <v>8.5400000000000005E-4</v>
+        <v>6.7689149999999998</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.2">
@@ -29329,28 +29341,28 @@
         <v>2015</v>
       </c>
       <c r="B979" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C979">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D979">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E979">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F979" t="s">
         <v>10</v>
       </c>
       <c r="G979" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H979">
-        <v>189.73411899999999</v>
+        <v>0.33248299999999997</v>
       </c>
       <c r="I979" s="1">
-        <v>6.7689149999999998</v>
+        <v>5.3670000000000002E-3</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.2">
@@ -29367,19 +29379,19 @@
         <v>3</v>
       </c>
       <c r="E980">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F980" t="s">
         <v>10</v>
       </c>
       <c r="G980" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H980">
-        <v>0.33248299999999997</v>
+        <v>0.33193099999999998</v>
       </c>
       <c r="I980" s="1">
-        <v>5.3670000000000002E-3</v>
+        <v>7.9719999999999999E-3</v>
       </c>
     </row>
     <row r="981" spans="1:9" x14ac:dyDescent="0.2">
@@ -29396,19 +29408,19 @@
         <v>3</v>
       </c>
       <c r="E981">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F981" t="s">
         <v>10</v>
       </c>
       <c r="G981" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H981">
-        <v>0.33193099999999998</v>
+        <v>0.51835600000000004</v>
       </c>
       <c r="I981" s="1">
-        <v>7.9719999999999999E-3</v>
+        <v>5.7130000000000002E-3</v>
       </c>
     </row>
     <row r="982" spans="1:9" x14ac:dyDescent="0.2">
@@ -29425,7 +29437,7 @@
         <v>3</v>
       </c>
       <c r="E982">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F982" t="s">
         <v>10</v>
@@ -29434,10 +29446,10 @@
         <v>25</v>
       </c>
       <c r="H982">
-        <v>0.51835600000000004</v>
+        <v>1.009482</v>
       </c>
       <c r="I982" s="1">
-        <v>5.7130000000000002E-3</v>
+        <v>1.6714E-2</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
@@ -29454,7 +29466,7 @@
         <v>3</v>
       </c>
       <c r="E983">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F983" t="s">
         <v>10</v>
@@ -29463,10 +29475,10 @@
         <v>25</v>
       </c>
       <c r="H983">
-        <v>1.009482</v>
+        <v>0.49624499999999999</v>
       </c>
       <c r="I983" s="1">
-        <v>1.6714E-2</v>
+        <v>2.8930000000000002E-3</v>
       </c>
     </row>
     <row r="984" spans="1:9" x14ac:dyDescent="0.2">
@@ -29483,7 +29495,7 @@
         <v>3</v>
       </c>
       <c r="E984">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F984" t="s">
         <v>10</v>
@@ -29492,10 +29504,10 @@
         <v>25</v>
       </c>
       <c r="H984">
-        <v>0.49624499999999999</v>
+        <v>1.0294190000000001</v>
       </c>
       <c r="I984" s="1">
-        <v>2.8930000000000002E-3</v>
+        <v>1.325E-2</v>
       </c>
     </row>
     <row r="985" spans="1:9" x14ac:dyDescent="0.2">
@@ -29512,7 +29524,7 @@
         <v>3</v>
       </c>
       <c r="E985">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F985" t="s">
         <v>10</v>
@@ -29521,10 +29533,10 @@
         <v>25</v>
       </c>
       <c r="H985">
-        <v>1.0294190000000001</v>
+        <v>0.37882900000000003</v>
       </c>
       <c r="I985" s="1">
-        <v>1.325E-2</v>
+        <v>6.6179999999999998E-3</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.2">
@@ -29541,7 +29553,7 @@
         <v>3</v>
       </c>
       <c r="E986">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F986" t="s">
         <v>10</v>
@@ -29550,10 +29562,10 @@
         <v>25</v>
       </c>
       <c r="H986">
-        <v>0.37882900000000003</v>
+        <v>0.30193500000000001</v>
       </c>
       <c r="I986" s="1">
-        <v>6.6179999999999998E-3</v>
+        <v>4.176E-3</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.2">
@@ -29570,7 +29582,7 @@
         <v>3</v>
       </c>
       <c r="E987">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F987" t="s">
         <v>10</v>
@@ -29579,10 +29591,10 @@
         <v>25</v>
       </c>
       <c r="H987">
-        <v>0.30193500000000001</v>
+        <v>0.84943199999999996</v>
       </c>
       <c r="I987" s="1">
-        <v>4.176E-3</v>
+        <v>7.9769999999999997E-3</v>
       </c>
     </row>
     <row r="988" spans="1:9" x14ac:dyDescent="0.2">
@@ -29599,7 +29611,7 @@
         <v>3</v>
       </c>
       <c r="E988">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F988" t="s">
         <v>10</v>
@@ -29608,10 +29620,10 @@
         <v>25</v>
       </c>
       <c r="H988">
-        <v>0.84943199999999996</v>
+        <v>0.27697699999999997</v>
       </c>
       <c r="I988" s="1">
-        <v>7.9769999999999997E-3</v>
+        <v>3.4859999999999999E-3</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.2">
@@ -29628,7 +29640,7 @@
         <v>3</v>
       </c>
       <c r="E989">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F989" t="s">
         <v>10</v>
@@ -29637,10 +29649,10 @@
         <v>25</v>
       </c>
       <c r="H989">
-        <v>0.27697699999999997</v>
+        <v>0.47373700000000002</v>
       </c>
       <c r="I989" s="1">
-        <v>3.4859999999999999E-3</v>
+        <v>8.2889999999999995E-3</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.2">
@@ -29657,7 +29669,7 @@
         <v>3</v>
       </c>
       <c r="E990">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F990" t="s">
         <v>10</v>
@@ -29666,10 +29678,10 @@
         <v>25</v>
       </c>
       <c r="H990">
-        <v>0.47373700000000002</v>
+        <v>0.316749</v>
       </c>
       <c r="I990" s="1">
-        <v>8.2889999999999995E-3</v>
+        <v>4.7229999999999998E-3</v>
       </c>
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.2">
@@ -29686,7 +29698,7 @@
         <v>3</v>
       </c>
       <c r="E991">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F991" t="s">
         <v>10</v>
@@ -29695,10 +29707,10 @@
         <v>25</v>
       </c>
       <c r="H991">
-        <v>0.316749</v>
+        <v>0.27695999999999998</v>
       </c>
       <c r="I991" s="1">
-        <v>4.7229999999999998E-3</v>
+        <v>3.4489999999999998E-3</v>
       </c>
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.2">
@@ -29715,7 +29727,7 @@
         <v>3</v>
       </c>
       <c r="E992">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F992" t="s">
         <v>10</v>
@@ -29724,10 +29736,10 @@
         <v>25</v>
       </c>
       <c r="H992">
-        <v>0.27695999999999998</v>
+        <v>0.381716</v>
       </c>
       <c r="I992" s="1">
-        <v>3.4489999999999998E-3</v>
+        <v>6.0489999999999997E-3</v>
       </c>
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.2">
@@ -29744,7 +29756,7 @@
         <v>3</v>
       </c>
       <c r="E993">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F993" t="s">
         <v>10</v>
@@ -29753,10 +29765,10 @@
         <v>25</v>
       </c>
       <c r="H993">
-        <v>0.381716</v>
+        <v>0.43839699999999998</v>
       </c>
       <c r="I993" s="1">
-        <v>6.0489999999999997E-3</v>
+        <v>9.7160000000000007E-3</v>
       </c>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.2">
@@ -29773,7 +29785,7 @@
         <v>3</v>
       </c>
       <c r="E994">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F994" t="s">
         <v>10</v>
@@ -29782,10 +29794,10 @@
         <v>25</v>
       </c>
       <c r="H994">
-        <v>0.43839699999999998</v>
+        <v>0.15468199999999999</v>
       </c>
       <c r="I994" s="1">
-        <v>9.7160000000000007E-3</v>
+        <v>1.253E-3</v>
       </c>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.2">
@@ -29802,7 +29814,7 @@
         <v>3</v>
       </c>
       <c r="E995">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F995" t="s">
         <v>10</v>
@@ -29811,10 +29823,10 @@
         <v>25</v>
       </c>
       <c r="H995">
-        <v>0.15468199999999999</v>
+        <v>0.21993399999999999</v>
       </c>
       <c r="I995" s="1">
-        <v>1.253E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.2">
@@ -29831,7 +29843,7 @@
         <v>3</v>
       </c>
       <c r="E996">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F996" t="s">
         <v>10</v>
@@ -29840,10 +29852,10 @@
         <v>25</v>
       </c>
       <c r="H996">
-        <v>0.21993399999999999</v>
+        <v>0.48527799999999999</v>
       </c>
       <c r="I996" s="1">
-        <v>2.2899999999999999E-3</v>
+        <v>6.1419999999999999E-3</v>
       </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.2">
@@ -29860,7 +29872,7 @@
         <v>3</v>
       </c>
       <c r="E997">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F997" t="s">
         <v>10</v>
@@ -29869,10 +29881,10 @@
         <v>25</v>
       </c>
       <c r="H997">
-        <v>0.48527799999999999</v>
+        <v>0.13477800000000001</v>
       </c>
       <c r="I997" s="1">
-        <v>6.1419999999999999E-3</v>
+        <v>8.43E-4</v>
       </c>
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.2">
@@ -29889,7 +29901,7 @@
         <v>3</v>
       </c>
       <c r="E998">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F998" t="s">
         <v>10</v>
@@ -29898,10 +29910,10 @@
         <v>25</v>
       </c>
       <c r="H998">
-        <v>0.13477800000000001</v>
+        <v>0.32529400000000003</v>
       </c>
       <c r="I998" s="1">
-        <v>8.43E-4</v>
+        <v>4.3990000000000001E-3</v>
       </c>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.2">
@@ -29918,7 +29930,7 @@
         <v>3</v>
       </c>
       <c r="E999">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F999" t="s">
         <v>10</v>
@@ -29927,10 +29939,10 @@
         <v>25</v>
       </c>
       <c r="H999">
-        <v>0.32529400000000003</v>
+        <v>0.22326599999999999</v>
       </c>
       <c r="I999" s="1">
-        <v>4.3990000000000001E-3</v>
+        <v>2.7810000000000001E-3</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
@@ -29947,7 +29959,7 @@
         <v>3</v>
       </c>
       <c r="E1000">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1000" t="s">
         <v>10</v>
@@ -29956,10 +29968,10 @@
         <v>25</v>
       </c>
       <c r="H1000">
-        <v>0.22326599999999999</v>
+        <v>0.306975</v>
       </c>
       <c r="I1000" s="1">
-        <v>2.7810000000000001E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
@@ -29976,7 +29988,7 @@
         <v>3</v>
       </c>
       <c r="E1001">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1001" t="s">
         <v>10</v>
@@ -29985,10 +29997,10 @@
         <v>25</v>
       </c>
       <c r="H1001">
-        <v>0.306975</v>
+        <v>0.24429999999999999</v>
       </c>
       <c r="I1001" s="1">
-        <v>2.5500000000000002E-3</v>
+        <v>3.6440000000000001E-3</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
@@ -30005,7 +30017,7 @@
         <v>3</v>
       </c>
       <c r="E1002">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1002" t="s">
         <v>10</v>
@@ -30014,10 +30026,10 @@
         <v>25</v>
       </c>
       <c r="H1002">
-        <v>0.24429999999999999</v>
+        <v>0.27484799999999998</v>
       </c>
       <c r="I1002" s="1">
-        <v>3.6440000000000001E-3</v>
+        <v>3.8530000000000001E-3</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
@@ -30034,7 +30046,7 @@
         <v>3</v>
       </c>
       <c r="E1003">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1003" t="s">
         <v>10</v>
@@ -30043,10 +30055,10 @@
         <v>25</v>
       </c>
       <c r="H1003">
-        <v>0.27484799999999998</v>
+        <v>0.40833199999999997</v>
       </c>
       <c r="I1003" s="1">
-        <v>3.8530000000000001E-3</v>
+        <v>4.8349999999999999E-3</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
@@ -30063,7 +30075,7 @@
         <v>3</v>
       </c>
       <c r="E1004">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1004" t="s">
         <v>10</v>
@@ -30072,10 +30084,10 @@
         <v>25</v>
       </c>
       <c r="H1004">
-        <v>0.40833199999999997</v>
+        <v>0.68379400000000001</v>
       </c>
       <c r="I1004" s="1">
-        <v>4.8349999999999999E-3</v>
+        <v>6.8430000000000001E-3</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
@@ -30092,7 +30104,7 @@
         <v>3</v>
       </c>
       <c r="E1005">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1005" t="s">
         <v>10</v>
@@ -30101,10 +30113,10 @@
         <v>25</v>
       </c>
       <c r="H1005">
-        <v>0.68379400000000001</v>
+        <v>0.60660999999999998</v>
       </c>
       <c r="I1005" s="1">
-        <v>6.8430000000000001E-3</v>
+        <v>9.3019999999999995E-3</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
@@ -30121,7 +30133,7 @@
         <v>3</v>
       </c>
       <c r="E1006">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1006" t="s">
         <v>10</v>
@@ -30130,10 +30142,10 @@
         <v>25</v>
       </c>
       <c r="H1006">
-        <v>0.60660999999999998</v>
+        <v>0.30858999999999998</v>
       </c>
       <c r="I1006" s="1">
-        <v>9.3019999999999995E-3</v>
+        <v>3.2299999999999998E-3</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
@@ -30150,7 +30162,7 @@
         <v>3</v>
       </c>
       <c r="E1007">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1007" t="s">
         <v>10</v>
@@ -30159,10 +30171,10 @@
         <v>25</v>
       </c>
       <c r="H1007">
-        <v>0.30858999999999998</v>
+        <v>0.22382199999999999</v>
       </c>
       <c r="I1007" s="1">
-        <v>3.2299999999999998E-3</v>
+        <v>2.0630000000000002E-3</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
@@ -30179,7 +30191,7 @@
         <v>3</v>
       </c>
       <c r="E1008">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1008" t="s">
         <v>10</v>
@@ -30188,10 +30200,10 @@
         <v>25</v>
       </c>
       <c r="H1008">
-        <v>0.22382199999999999</v>
+        <v>0.152169</v>
       </c>
       <c r="I1008" s="1">
-        <v>2.0630000000000002E-3</v>
+        <v>9.8400000000000007E-4</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
@@ -30208,7 +30220,7 @@
         <v>3</v>
       </c>
       <c r="E1009">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1009" t="s">
         <v>10</v>
@@ -30217,10 +30229,10 @@
         <v>25</v>
       </c>
       <c r="H1009">
-        <v>0.152169</v>
+        <v>0.53708800000000001</v>
       </c>
       <c r="I1009" s="1">
-        <v>9.8400000000000007E-4</v>
+        <v>3.4610000000000001E-3</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
@@ -30237,7 +30249,7 @@
         <v>3</v>
       </c>
       <c r="E1010">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1010" t="s">
         <v>10</v>
@@ -30246,10 +30258,10 @@
         <v>25</v>
       </c>
       <c r="H1010">
-        <v>0.53708800000000001</v>
+        <v>0.200881</v>
       </c>
       <c r="I1010" s="1">
-        <v>3.4610000000000001E-3</v>
+        <v>1.2179999999999999E-3</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
@@ -30266,7 +30278,7 @@
         <v>3</v>
       </c>
       <c r="E1011">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1011" t="s">
         <v>10</v>
@@ -30275,10 +30287,10 @@
         <v>25</v>
       </c>
       <c r="H1011">
-        <v>0.200881</v>
+        <v>0.142514</v>
       </c>
       <c r="I1011" s="1">
-        <v>1.2179999999999999E-3</v>
+        <v>1.0480000000000001E-3</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
@@ -30295,7 +30307,7 @@
         <v>3</v>
       </c>
       <c r="E1012">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1012" t="s">
         <v>10</v>
@@ -30304,10 +30316,10 @@
         <v>25</v>
       </c>
       <c r="H1012">
-        <v>0.142514</v>
+        <v>0.34137400000000001</v>
       </c>
       <c r="I1012" s="1">
-        <v>1.0480000000000001E-3</v>
+        <v>3.689E-3</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
@@ -30324,19 +30336,19 @@
         <v>3</v>
       </c>
       <c r="E1013">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1013" t="s">
         <v>10</v>
       </c>
       <c r="G1013" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1013">
-        <v>0.34137400000000001</v>
+        <v>0.136382</v>
       </c>
       <c r="I1013" s="1">
-        <v>3.689E-3</v>
+        <v>1.1969999999999999E-3</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
@@ -30353,19 +30365,19 @@
         <v>3</v>
       </c>
       <c r="E1014">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1014" t="s">
         <v>10</v>
       </c>
       <c r="G1014" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H1014">
-        <v>0.136382</v>
+        <v>8.1443000000000002E-2</v>
       </c>
       <c r="I1014" s="1">
-        <v>1.1969999999999999E-3</v>
+        <v>3.7500000000000001E-4</v>
       </c>
     </row>
     <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
@@ -30382,19 +30394,19 @@
         <v>3</v>
       </c>
       <c r="E1015">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1015" t="s">
         <v>10</v>
       </c>
       <c r="G1015" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1015">
-        <v>8.1443000000000002E-2</v>
+        <v>0.760486</v>
       </c>
       <c r="I1015" s="1">
-        <v>3.7500000000000001E-4</v>
+        <v>9.0849999999999993E-3</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
@@ -30411,7 +30423,7 @@
         <v>3</v>
       </c>
       <c r="E1016">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1016" t="s">
         <v>10</v>
@@ -30420,10 +30432,10 @@
         <v>25</v>
       </c>
       <c r="H1016">
-        <v>0.760486</v>
+        <v>0.19892899999999999</v>
       </c>
       <c r="I1016" s="1">
-        <v>9.0849999999999993E-3</v>
+        <v>1.74E-3</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
@@ -30440,7 +30452,7 @@
         <v>3</v>
       </c>
       <c r="E1017">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1017" t="s">
         <v>10</v>
@@ -30449,10 +30461,10 @@
         <v>25</v>
       </c>
       <c r="H1017">
-        <v>0.19892899999999999</v>
+        <v>0.181896</v>
       </c>
       <c r="I1017" s="1">
-        <v>1.74E-3</v>
+        <v>1.634E-3</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
@@ -30469,19 +30481,19 @@
         <v>3</v>
       </c>
       <c r="E1018">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1018" t="s">
         <v>10</v>
       </c>
       <c r="G1018" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1018">
-        <v>0.181896</v>
+        <v>0.26642399999999999</v>
       </c>
       <c r="I1018" s="1">
-        <v>1.634E-3</v>
+        <v>1.122E-3</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
@@ -30498,19 +30510,19 @@
         <v>3</v>
       </c>
       <c r="E1019">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1019" t="s">
         <v>10</v>
       </c>
       <c r="G1019" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1019">
-        <v>0.26642399999999999</v>
+        <v>0.32120199999999999</v>
       </c>
       <c r="I1019" s="1">
-        <v>1.122E-3</v>
+        <v>2.3140000000000001E-3</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
@@ -30527,7 +30539,7 @@
         <v>3</v>
       </c>
       <c r="E1020">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1020" t="s">
         <v>10</v>
@@ -30536,10 +30548,10 @@
         <v>25</v>
       </c>
       <c r="H1020">
-        <v>0.32120199999999999</v>
+        <v>0.57523199999999997</v>
       </c>
       <c r="I1020" s="1">
-        <v>2.3140000000000001E-3</v>
+        <v>4.9240000000000004E-3</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
@@ -30556,7 +30568,7 @@
         <v>3</v>
       </c>
       <c r="E1021">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1021" t="s">
         <v>10</v>
@@ -30565,10 +30577,10 @@
         <v>25</v>
       </c>
       <c r="H1021">
-        <v>0.57523199999999997</v>
+        <v>0.51552399999999998</v>
       </c>
       <c r="I1021" s="1">
-        <v>4.9240000000000004E-3</v>
+        <v>4.6239999999999996E-3</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
@@ -30585,19 +30597,19 @@
         <v>3</v>
       </c>
       <c r="E1022">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1022" t="s">
         <v>10</v>
       </c>
       <c r="G1022" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1022">
-        <v>0.51552399999999998</v>
+        <v>3.8639E-2</v>
       </c>
       <c r="I1022" s="1">
-        <v>4.6239999999999996E-3</v>
+        <v>1.08E-4</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
@@ -30614,19 +30626,19 @@
         <v>3</v>
       </c>
       <c r="E1023">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1023" t="s">
         <v>10</v>
       </c>
       <c r="G1023" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H1023">
-        <v>3.8639E-2</v>
+        <v>0.28891499999999998</v>
       </c>
       <c r="I1023" s="1">
-        <v>1.08E-4</v>
+        <v>3.65E-3</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
@@ -30643,7 +30655,7 @@
         <v>3</v>
       </c>
       <c r="E1024">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1024" t="s">
         <v>10</v>
@@ -30652,10 +30664,10 @@
         <v>25</v>
       </c>
       <c r="H1024">
-        <v>0.28891499999999998</v>
+        <v>0.181094</v>
       </c>
       <c r="I1024" s="1">
-        <v>3.65E-3</v>
+        <v>1.82E-3</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.2">
@@ -30672,7 +30684,7 @@
         <v>3</v>
       </c>
       <c r="E1025">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1025" t="s">
         <v>10</v>
@@ -30681,10 +30693,10 @@
         <v>25</v>
       </c>
       <c r="H1025">
-        <v>0.181094</v>
+        <v>0.24723400000000001</v>
       </c>
       <c r="I1025" s="1">
-        <v>1.82E-3</v>
+        <v>1.9610000000000001E-3</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.2">
@@ -30701,19 +30713,19 @@
         <v>3</v>
       </c>
       <c r="E1026">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1026" t="s">
         <v>10</v>
       </c>
       <c r="G1026" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1026">
-        <v>0.24723400000000001</v>
+        <v>0.59069099999999997</v>
       </c>
       <c r="I1026" s="1">
-        <v>1.9610000000000001E-3</v>
+        <v>7.6140000000000001E-3</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.2">
@@ -30730,19 +30742,19 @@
         <v>3</v>
       </c>
       <c r="E1027">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1027" t="s">
         <v>10</v>
       </c>
       <c r="G1027" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H1027">
-        <v>0.59069099999999997</v>
+        <v>0.19792599999999999</v>
       </c>
       <c r="I1027" s="1">
-        <v>7.6140000000000001E-3</v>
+        <v>1.4239999999999999E-3</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.2">
@@ -30759,19 +30771,19 @@
         <v>3</v>
       </c>
       <c r="E1028">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1028" t="s">
         <v>10</v>
       </c>
       <c r="G1028" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1028">
-        <v>0.19792599999999999</v>
+        <v>2.0308410000000001</v>
       </c>
       <c r="I1028" s="1">
-        <v>1.4239999999999999E-3</v>
+        <v>1.8283000000000001E-2</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.2">
@@ -30788,19 +30800,19 @@
         <v>3</v>
       </c>
       <c r="E1029">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1029" t="s">
         <v>10</v>
       </c>
       <c r="G1029" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H1029">
-        <v>2.0308410000000001</v>
+        <v>0.14977199999999999</v>
       </c>
       <c r="I1029" s="1">
-        <v>1.8283000000000001E-2</v>
+        <v>1.4400000000000001E-3</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.2">
@@ -30817,19 +30829,19 @@
         <v>3</v>
       </c>
       <c r="E1030">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1030" t="s">
         <v>10</v>
       </c>
       <c r="G1030" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1030">
-        <v>0.14977199999999999</v>
+        <v>0.57763699999999996</v>
       </c>
       <c r="I1030" s="1">
-        <v>1.4400000000000001E-3</v>
+        <v>6.0629999999999998E-3</v>
       </c>
     </row>
     <row r="1031" spans="1:9" x14ac:dyDescent="0.2">
@@ -30846,7 +30858,7 @@
         <v>3</v>
       </c>
       <c r="E1031">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1031" t="s">
         <v>10</v>
@@ -30855,10 +30867,10 @@
         <v>25</v>
       </c>
       <c r="H1031">
-        <v>0.57763699999999996</v>
+        <v>0.246696</v>
       </c>
       <c r="I1031" s="1">
-        <v>6.0629999999999998E-3</v>
+        <v>1.7930000000000001E-3</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.2">
@@ -30875,19 +30887,19 @@
         <v>3</v>
       </c>
       <c r="E1032">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1032" t="s">
         <v>10</v>
       </c>
       <c r="G1032" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1032">
-        <v>0.246696</v>
+        <v>9.9368999999999999E-2</v>
       </c>
       <c r="I1032" s="1">
-        <v>1.7930000000000001E-3</v>
+        <v>7.5600000000000005E-4</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.2">
@@ -30904,19 +30916,19 @@
         <v>3</v>
       </c>
       <c r="E1033">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1033" t="s">
         <v>10</v>
       </c>
       <c r="G1033" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1033">
-        <v>9.9368999999999999E-2</v>
+        <v>0.32095800000000002</v>
       </c>
       <c r="I1033" s="1">
-        <v>7.5600000000000005E-4</v>
+        <v>3.2929999999999999E-3</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.2">
@@ -30933,19 +30945,19 @@
         <v>3</v>
       </c>
       <c r="E1034">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1034" t="s">
         <v>10</v>
       </c>
       <c r="G1034" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1034">
-        <v>0.32095800000000002</v>
+        <v>0.115021</v>
       </c>
       <c r="I1034" s="1">
-        <v>3.2929999999999999E-3</v>
+        <v>3.68E-4</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.2">
@@ -30962,7 +30974,7 @@
         <v>3</v>
       </c>
       <c r="E1035">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1035" t="s">
         <v>10</v>
@@ -30971,10 +30983,10 @@
         <v>23</v>
       </c>
       <c r="H1035">
-        <v>0.115021</v>
+        <v>0.123</v>
       </c>
       <c r="I1035" s="1">
-        <v>3.68E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.2">
@@ -30991,7 +31003,7 @@
         <v>3</v>
       </c>
       <c r="E1036">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1036" t="s">
         <v>10</v>
@@ -31000,10 +31012,10 @@
         <v>23</v>
       </c>
       <c r="H1036">
-        <v>0.123</v>
+        <v>0.117122</v>
       </c>
       <c r="I1036" s="1">
-        <v>3.4400000000000001E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.2">
@@ -31020,19 +31032,19 @@
         <v>3</v>
       </c>
       <c r="E1037">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1037" t="s">
         <v>10</v>
       </c>
       <c r="G1037" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1037">
-        <v>0.117122</v>
+        <v>0.63505400000000001</v>
       </c>
       <c r="I1037" s="1">
-        <v>3.3199999999999999E-4</v>
+        <v>8.9119999999999998E-3</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.2">
@@ -31049,7 +31061,7 @@
         <v>3</v>
       </c>
       <c r="E1038">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1038" t="s">
         <v>10</v>
@@ -31058,10 +31070,10 @@
         <v>25</v>
       </c>
       <c r="H1038">
-        <v>0.63505400000000001</v>
+        <v>0.3049</v>
       </c>
       <c r="I1038" s="1">
-        <v>8.9119999999999998E-3</v>
+        <v>4.7730000000000003E-3</v>
       </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.2">
@@ -31078,7 +31090,7 @@
         <v>3</v>
       </c>
       <c r="E1039">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1039" t="s">
         <v>10</v>
@@ -31087,10 +31099,10 @@
         <v>25</v>
       </c>
       <c r="H1039">
-        <v>0.3049</v>
+        <v>0.33988699999999999</v>
       </c>
       <c r="I1039" s="1">
-        <v>4.7730000000000003E-3</v>
+        <v>6.2830000000000004E-3</v>
       </c>
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.2">
@@ -31107,19 +31119,19 @@
         <v>3</v>
       </c>
       <c r="E1040">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1040" t="s">
         <v>10</v>
       </c>
       <c r="G1040" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1040">
-        <v>0.33988699999999999</v>
+        <v>0.18063599999999999</v>
       </c>
       <c r="I1040" s="1">
-        <v>6.2830000000000004E-3</v>
+        <v>1.238E-3</v>
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
@@ -31136,19 +31148,19 @@
         <v>3</v>
       </c>
       <c r="E1041">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1041" t="s">
         <v>10</v>
       </c>
       <c r="G1041" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1041">
-        <v>0.18063599999999999</v>
+        <v>8.5345000000000004E-2</v>
       </c>
       <c r="I1041" s="1">
-        <v>1.238E-3</v>
+        <v>4.9700000000000005E-4</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
@@ -31165,19 +31177,19 @@
         <v>3</v>
       </c>
       <c r="E1042">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1042" t="s">
         <v>10</v>
       </c>
       <c r="G1042" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1042">
-        <v>8.5345000000000004E-2</v>
+        <v>0.27284799999999998</v>
       </c>
       <c r="I1042" s="1">
-        <v>4.9700000000000005E-4</v>
+        <v>5.0410000000000003E-3</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
@@ -31194,7 +31206,7 @@
         <v>3</v>
       </c>
       <c r="E1043">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1043" t="s">
         <v>10</v>
@@ -31203,10 +31215,10 @@
         <v>25</v>
       </c>
       <c r="H1043">
-        <v>0.27284799999999998</v>
+        <v>0.35345300000000002</v>
       </c>
       <c r="I1043" s="1">
-        <v>5.0410000000000003E-3</v>
+        <v>6.8560000000000001E-3</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
@@ -31223,7 +31235,7 @@
         <v>3</v>
       </c>
       <c r="E1044">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1044" t="s">
         <v>10</v>
@@ -31232,10 +31244,10 @@
         <v>25</v>
       </c>
       <c r="H1044">
-        <v>0.35345300000000002</v>
+        <v>0.44468200000000002</v>
       </c>
       <c r="I1044" s="1">
-        <v>6.8560000000000001E-3</v>
+        <v>6.0660000000000002E-3</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
@@ -31252,7 +31264,7 @@
         <v>3</v>
       </c>
       <c r="E1045">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1045" t="s">
         <v>10</v>
@@ -31261,10 +31273,10 @@
         <v>25</v>
       </c>
       <c r="H1045">
-        <v>0.44468200000000002</v>
+        <v>0.29544500000000001</v>
       </c>
       <c r="I1045" s="1">
-        <v>6.0660000000000002E-3</v>
+        <v>3.1930000000000001E-3</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
@@ -31281,7 +31293,7 @@
         <v>3</v>
       </c>
       <c r="E1046">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1046" t="s">
         <v>10</v>
@@ -31290,10 +31302,10 @@
         <v>25</v>
       </c>
       <c r="H1046">
-        <v>0.29544500000000001</v>
+        <v>0.25317200000000001</v>
       </c>
       <c r="I1046" s="1">
-        <v>3.1930000000000001E-3</v>
+        <v>3.6489999999999999E-3</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
@@ -31310,7 +31322,7 @@
         <v>3</v>
       </c>
       <c r="E1047">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1047" t="s">
         <v>10</v>
@@ -31319,10 +31331,10 @@
         <v>25</v>
       </c>
       <c r="H1047">
-        <v>0.25317200000000001</v>
+        <v>0.79496199999999995</v>
       </c>
       <c r="I1047" s="1">
-        <v>3.6489999999999999E-3</v>
+        <v>1.3636000000000001E-2</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
@@ -31339,19 +31351,19 @@
         <v>3</v>
       </c>
       <c r="E1048">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1048" t="s">
         <v>10</v>
       </c>
       <c r="G1048" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1048">
-        <v>0.79496199999999995</v>
+        <v>0.401395</v>
       </c>
       <c r="I1048" s="1">
-        <v>1.3636000000000001E-2</v>
+        <v>1.1402000000000001E-2</v>
       </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
@@ -31368,13 +31380,13 @@
         <v>3</v>
       </c>
       <c r="E1049">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1049" t="s">
         <v>10</v>
       </c>
       <c r="G1049" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1049">
         <v>0.401395</v>
@@ -31397,19 +31409,19 @@
         <v>3</v>
       </c>
       <c r="E1050">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1050" t="s">
         <v>10</v>
       </c>
       <c r="G1050" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H1050">
-        <v>0.401395</v>
+        <v>1.2009860000000001</v>
       </c>
       <c r="I1050" s="1">
-        <v>1.1402000000000001E-2</v>
+        <v>2.4448000000000001E-2</v>
       </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
@@ -31426,7 +31438,7 @@
         <v>3</v>
       </c>
       <c r="E1051">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1051" t="s">
         <v>10</v>
@@ -31435,10 +31447,10 @@
         <v>25</v>
       </c>
       <c r="H1051">
-        <v>1.2009860000000001</v>
+        <v>0.39231500000000002</v>
       </c>
       <c r="I1051" s="1">
-        <v>2.4448000000000001E-2</v>
+        <v>6.718E-3</v>
       </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
@@ -31455,7 +31467,7 @@
         <v>3</v>
       </c>
       <c r="E1052">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1052" t="s">
         <v>10</v>
@@ -31464,10 +31476,10 @@
         <v>25</v>
       </c>
       <c r="H1052">
-        <v>0.39231500000000002</v>
+        <v>0.18820100000000001</v>
       </c>
       <c r="I1052" s="1">
-        <v>6.718E-3</v>
+        <v>2.0119999999999999E-3</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
@@ -31484,7 +31496,7 @@
         <v>3</v>
       </c>
       <c r="E1053">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1053" t="s">
         <v>10</v>
@@ -31493,10 +31505,10 @@
         <v>25</v>
       </c>
       <c r="H1053">
-        <v>0.18820100000000001</v>
+        <v>0.17129900000000001</v>
       </c>
       <c r="I1053" s="1">
-        <v>2.0119999999999999E-3</v>
+        <v>1.359E-3</v>
       </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
@@ -31513,7 +31525,7 @@
         <v>3</v>
       </c>
       <c r="E1054">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1054" t="s">
         <v>10</v>
@@ -31522,10 +31534,10 @@
         <v>25</v>
       </c>
       <c r="H1054">
-        <v>0.17129900000000001</v>
+        <v>0.23716899999999999</v>
       </c>
       <c r="I1054" s="1">
-        <v>1.359E-3</v>
+        <v>1.7030000000000001E-3</v>
       </c>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
@@ -31542,7 +31554,7 @@
         <v>3</v>
       </c>
       <c r="E1055">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1055" t="s">
         <v>10</v>
@@ -31551,10 +31563,10 @@
         <v>25</v>
       </c>
       <c r="H1055">
-        <v>0.23716899999999999</v>
+        <v>0.43521799999999999</v>
       </c>
       <c r="I1055" s="1">
-        <v>1.7030000000000001E-3</v>
+        <v>4.385E-3</v>
       </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
@@ -31571,7 +31583,7 @@
         <v>3</v>
       </c>
       <c r="E1056">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1056" t="s">
         <v>10</v>
@@ -31580,10 +31592,10 @@
         <v>25</v>
       </c>
       <c r="H1056">
-        <v>0.43521799999999999</v>
+        <v>0.9294</v>
       </c>
       <c r="I1056" s="1">
-        <v>4.385E-3</v>
+        <v>1.9421999999999998E-2</v>
       </c>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.2">
@@ -31600,19 +31612,19 @@
         <v>3</v>
       </c>
       <c r="E1057">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1057" t="s">
         <v>10</v>
       </c>
       <c r="G1057" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H1057">
-        <v>0.9294</v>
+        <v>0.47228599999999998</v>
       </c>
       <c r="I1057" s="1">
-        <v>1.9421999999999998E-2</v>
+        <v>9.6159999999999995E-3</v>
       </c>
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.2">
@@ -31629,19 +31641,19 @@
         <v>3</v>
       </c>
       <c r="E1058">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F1058" t="s">
         <v>10</v>
       </c>
       <c r="G1058" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H1058">
-        <v>0.47228599999999998</v>
+        <v>4.1658000000000001E-2</v>
       </c>
       <c r="I1058" s="1">
-        <v>9.6159999999999995E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.2">
@@ -31658,19 +31670,19 @@
         <v>3</v>
       </c>
       <c r="E1059">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1059" t="s">
         <v>10</v>
       </c>
       <c r="G1059" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H1059">
-        <v>4.1658000000000001E-2</v>
+        <v>0.178706</v>
       </c>
       <c r="I1059" s="1">
-        <v>1E-4</v>
+        <v>2.2850000000000001E-3</v>
       </c>
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.2">
@@ -31687,19 +31699,19 @@
         <v>3</v>
       </c>
       <c r="E1060">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1060" t="s">
         <v>10</v>
       </c>
       <c r="G1060" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1060">
-        <v>0.178706</v>
+        <v>0.66026600000000002</v>
       </c>
       <c r="I1060" s="1">
-        <v>2.2850000000000001E-3</v>
+        <v>1.3336000000000001E-2</v>
       </c>
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.2">
@@ -31716,7 +31728,7 @@
         <v>3</v>
       </c>
       <c r="E1061">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1061" t="s">
         <v>10</v>
@@ -31725,10 +31737,10 @@
         <v>25</v>
       </c>
       <c r="H1061">
-        <v>0.66026600000000002</v>
+        <v>0.40229100000000001</v>
       </c>
       <c r="I1061" s="1">
-        <v>1.3336000000000001E-2</v>
+        <v>5.1190000000000003E-3</v>
       </c>
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.2">
@@ -31745,7 +31757,7 @@
         <v>3</v>
       </c>
       <c r="E1062">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1062" t="s">
         <v>10</v>
@@ -31754,10 +31766,10 @@
         <v>25</v>
       </c>
       <c r="H1062">
-        <v>0.40229100000000001</v>
+        <v>0.41729100000000002</v>
       </c>
       <c r="I1062" s="1">
-        <v>5.1190000000000003E-3</v>
+        <v>5.8079999999999998E-3</v>
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.2">
@@ -31774,7 +31786,7 @@
         <v>3</v>
       </c>
       <c r="E1063">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1063" t="s">
         <v>10</v>
@@ -31783,10 +31795,10 @@
         <v>25</v>
       </c>
       <c r="H1063">
-        <v>0.41729100000000002</v>
+        <v>0.537767</v>
       </c>
       <c r="I1063" s="1">
-        <v>5.8079999999999998E-3</v>
+        <v>7.6819999999999996E-3</v>
       </c>
     </row>
     <row r="1064" spans="1:9" x14ac:dyDescent="0.2">
@@ -31803,7 +31815,7 @@
         <v>3</v>
       </c>
       <c r="E1064">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1064" t="s">
         <v>10</v>
@@ -31812,10 +31824,10 @@
         <v>25</v>
       </c>
       <c r="H1064">
-        <v>0.537767</v>
+        <v>0.629969</v>
       </c>
       <c r="I1064" s="1">
-        <v>7.6819999999999996E-3</v>
+        <v>8.3210000000000003E-3</v>
       </c>
     </row>
     <row r="1065" spans="1:9" x14ac:dyDescent="0.2">
@@ -31832,7 +31844,7 @@
         <v>3</v>
       </c>
       <c r="E1065">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1065" t="s">
         <v>10</v>
@@ -31841,10 +31853,10 @@
         <v>25</v>
       </c>
       <c r="H1065">
-        <v>0.629969</v>
+        <v>0.11862399999999999</v>
       </c>
       <c r="I1065" s="1">
-        <v>8.3210000000000003E-3</v>
+        <v>4.4499999999999997E-4</v>
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.2">
@@ -31861,7 +31873,7 @@
         <v>3</v>
       </c>
       <c r="E1066">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1066" t="s">
         <v>10</v>
@@ -31870,10 +31882,10 @@
         <v>25</v>
       </c>
       <c r="H1066">
-        <v>0.11862399999999999</v>
+        <v>7.7567999999999998E-2</v>
       </c>
       <c r="I1066" s="1">
-        <v>4.4499999999999997E-4</v>
+        <v>3.8099999999999999E-4</v>
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.2">
@@ -31890,7 +31902,7 @@
         <v>3</v>
       </c>
       <c r="E1067">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1067" t="s">
         <v>10</v>
@@ -31899,10 +31911,10 @@
         <v>25</v>
       </c>
       <c r="H1067">
-        <v>7.7567999999999998E-2</v>
+        <v>0.156417</v>
       </c>
       <c r="I1067" s="1">
-        <v>3.8099999999999999E-4</v>
+        <v>9.7099999999999997E-4</v>
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.2">
@@ -31919,7 +31931,7 @@
         <v>3</v>
       </c>
       <c r="E1068">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1068" t="s">
         <v>10</v>
@@ -31928,10 +31940,10 @@
         <v>25</v>
       </c>
       <c r="H1068">
-        <v>0.156417</v>
+        <v>0.48884699999999998</v>
       </c>
       <c r="I1068" s="1">
-        <v>9.7099999999999997E-4</v>
+        <v>4.4159999999999998E-3</v>
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
@@ -31948,7 +31960,7 @@
         <v>3</v>
       </c>
       <c r="E1069">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F1069" t="s">
         <v>10</v>
@@ -31957,10 +31969,10 @@
         <v>25</v>
       </c>
       <c r="H1069">
-        <v>0.48884699999999998</v>
+        <v>0.539883</v>
       </c>
       <c r="I1069" s="1">
-        <v>4.4159999999999998E-3</v>
+        <v>9.2849999999999999E-3</v>
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.2">
@@ -31977,7 +31989,7 @@
         <v>3</v>
       </c>
       <c r="E1070">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1070" t="s">
         <v>10</v>
@@ -31986,10 +31998,10 @@
         <v>25</v>
       </c>
       <c r="H1070">
-        <v>0.539883</v>
+        <v>0.58308899999999997</v>
       </c>
       <c r="I1070" s="1">
-        <v>9.2849999999999999E-3</v>
+        <v>7.7600000000000004E-3</v>
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.2">
@@ -32006,19 +32018,19 @@
         <v>3</v>
       </c>
       <c r="E1071">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1071" t="s">
         <v>10</v>
       </c>
       <c r="G1071" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H1071">
-        <v>0.58308899999999997</v>
+        <v>0.429786</v>
       </c>
       <c r="I1071" s="1">
-        <v>7.7600000000000004E-3</v>
+        <v>6.4749999999999999E-3</v>
       </c>
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.2">
@@ -32035,19 +32047,19 @@
         <v>3</v>
       </c>
       <c r="E1072">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1072" t="s">
         <v>10</v>
       </c>
       <c r="G1072" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H1072">
-        <v>0.429786</v>
+        <v>0.36103600000000002</v>
       </c>
       <c r="I1072" s="1">
-        <v>6.4749999999999999E-3</v>
+        <v>3.986E-3</v>
       </c>
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.2">
@@ -32064,19 +32076,19 @@
         <v>3</v>
       </c>
       <c r="E1073">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1073" t="s">
         <v>10</v>
       </c>
       <c r="G1073" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H1073">
-        <v>0.36103600000000002</v>
+        <v>0.26222800000000002</v>
       </c>
       <c r="I1073" s="1">
-        <v>3.986E-3</v>
+        <v>2.8739999999999998E-3</v>
       </c>
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.2">
@@ -32093,19 +32105,19 @@
         <v>3</v>
       </c>
       <c r="E1074">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1074" t="s">
         <v>10</v>
       </c>
       <c r="G1074" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1074">
-        <v>0.26222800000000002</v>
+        <v>0.122073</v>
       </c>
       <c r="I1074" s="1">
-        <v>2.8739999999999998E-3</v>
+        <v>7.1699999999999997E-4</v>
       </c>
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.2">
@@ -32122,19 +32134,19 @@
         <v>3</v>
       </c>
       <c r="E1075">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1075" t="s">
         <v>10</v>
       </c>
       <c r="G1075" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1075">
-        <v>0.122073</v>
+        <v>0.134246</v>
       </c>
       <c r="I1075" s="1">
-        <v>7.1699999999999997E-4</v>
+        <v>9.0300000000000005E-4</v>
       </c>
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.2">
@@ -32151,7 +32163,7 @@
         <v>3</v>
       </c>
       <c r="E1076">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1076" t="s">
         <v>10</v>
@@ -32160,10 +32172,10 @@
         <v>25</v>
       </c>
       <c r="H1076">
-        <v>0.134246</v>
+        <v>0.176593</v>
       </c>
       <c r="I1076" s="1">
-        <v>9.0300000000000005E-4</v>
+        <v>1.34E-3</v>
       </c>
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.2">
@@ -32180,7 +32192,7 @@
         <v>3</v>
       </c>
       <c r="E1077">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1077" t="s">
         <v>10</v>
@@ -32189,10 +32201,10 @@
         <v>25</v>
       </c>
       <c r="H1077">
-        <v>0.176593</v>
+        <v>0.121028</v>
       </c>
       <c r="I1077" s="1">
-        <v>1.34E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.2">
@@ -32209,7 +32221,7 @@
         <v>3</v>
       </c>
       <c r="E1078">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1078" t="s">
         <v>10</v>
@@ -32218,10 +32230,10 @@
         <v>25</v>
       </c>
       <c r="H1078">
-        <v>0.121028</v>
+        <v>0.105851</v>
       </c>
       <c r="I1078" s="1">
-        <v>4.2200000000000001E-4</v>
+        <v>3.5799999999999997E-4</v>
       </c>
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.2">
@@ -32238,7 +32250,7 @@
         <v>3</v>
       </c>
       <c r="E1079">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1079" t="s">
         <v>10</v>
@@ -32247,10 +32259,10 @@
         <v>25</v>
       </c>
       <c r="H1079">
-        <v>0.105851</v>
+        <v>0.184418</v>
       </c>
       <c r="I1079" s="1">
-        <v>3.5799999999999997E-4</v>
+        <v>1.2589999999999999E-3</v>
       </c>
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.2">
@@ -32267,19 +32279,19 @@
         <v>3</v>
       </c>
       <c r="E1080">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1080" t="s">
         <v>10</v>
       </c>
       <c r="G1080" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H1080">
-        <v>0.184418</v>
+        <v>0.113547</v>
       </c>
       <c r="I1080" s="1">
-        <v>1.2589999999999999E-3</v>
+        <v>8.8500000000000004E-4</v>
       </c>
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.2">
@@ -32296,19 +32308,19 @@
         <v>3</v>
       </c>
       <c r="E1081">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1081" t="s">
         <v>10</v>
       </c>
       <c r="G1081" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H1081">
-        <v>0.113547</v>
+        <v>8.1927E-2</v>
       </c>
       <c r="I1081" s="1">
-        <v>8.8500000000000004E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.2">
@@ -32325,19 +32337,19 @@
         <v>3</v>
       </c>
       <c r="E1082">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1082" t="s">
         <v>10</v>
       </c>
       <c r="G1082" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1082">
-        <v>8.1927E-2</v>
+        <v>0.14744399999999999</v>
       </c>
       <c r="I1082" s="1">
-        <v>4.0999999999999999E-4</v>
+        <v>1.555E-3</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.2">
@@ -32354,7 +32366,7 @@
         <v>3</v>
       </c>
       <c r="E1083">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1083" t="s">
         <v>10</v>
@@ -32363,10 +32375,10 @@
         <v>25</v>
       </c>
       <c r="H1083">
-        <v>0.14744399999999999</v>
+        <v>1.8101700000000001</v>
       </c>
       <c r="I1083" s="1">
-        <v>1.555E-3</v>
+        <v>3.9550000000000002E-2</v>
       </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.2">
@@ -32383,19 +32395,19 @@
         <v>3</v>
       </c>
       <c r="E1084">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1084" t="s">
         <v>10</v>
       </c>
       <c r="G1084" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H1084">
-        <v>1.8101700000000001</v>
+        <v>0.41969699999999999</v>
       </c>
       <c r="I1084" s="1">
-        <v>3.9550000000000002E-2</v>
+        <v>7.3889999999999997E-3</v>
       </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.2">
@@ -32412,19 +32424,19 @@
         <v>3</v>
       </c>
       <c r="E1085">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1085" t="s">
         <v>10</v>
       </c>
       <c r="G1085" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H1085">
-        <v>0.41969699999999999</v>
+        <v>0.60284599999999999</v>
       </c>
       <c r="I1085" s="1">
-        <v>7.3889999999999997E-3</v>
+        <v>1.3245E-2</v>
       </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.2">
@@ -32441,19 +32453,19 @@
         <v>3</v>
       </c>
       <c r="E1086">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F1086" t="s">
         <v>10</v>
       </c>
       <c r="G1086" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1086">
-        <v>0.60284599999999999</v>
+        <v>0.19731299999999999</v>
       </c>
       <c r="I1086" s="1">
-        <v>1.3245E-2</v>
+        <v>4.2400000000000001E-4</v>
       </c>
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.2">
@@ -32470,19 +32482,19 @@
         <v>3</v>
       </c>
       <c r="E1087">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1087" t="s">
         <v>10</v>
       </c>
       <c r="G1087" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1087">
-        <v>0.19731299999999999</v>
+        <v>0.70831299999999997</v>
       </c>
       <c r="I1087" s="1">
-        <v>4.2400000000000001E-4</v>
+        <v>2.1721000000000001E-2</v>
       </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.2">
@@ -32499,7 +32511,7 @@
         <v>3</v>
       </c>
       <c r="E1088">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1088" t="s">
         <v>10</v>
@@ -32508,10 +32520,10 @@
         <v>13</v>
       </c>
       <c r="H1088">
-        <v>0.70831299999999997</v>
+        <v>0.13491700000000001</v>
       </c>
       <c r="I1088" s="1">
-        <v>2.1721000000000001E-2</v>
+        <v>9.1200000000000005E-4</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
@@ -32528,19 +32540,19 @@
         <v>3</v>
       </c>
       <c r="E1089">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1089" t="s">
         <v>10</v>
       </c>
       <c r="G1089" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1089">
-        <v>0.13491700000000001</v>
+        <v>0.27290399999999998</v>
       </c>
       <c r="I1089" s="1">
-        <v>9.1200000000000005E-4</v>
+        <v>3.1779999999999998E-3</v>
       </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
@@ -32557,19 +32569,19 @@
         <v>3</v>
       </c>
       <c r="E1090">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1090" t="s">
         <v>10</v>
       </c>
       <c r="G1090" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1090">
-        <v>0.27290399999999998</v>
+        <v>0.103949</v>
       </c>
       <c r="I1090" s="1">
-        <v>3.1779999999999998E-3</v>
+        <v>6.6799999999999997E-4</v>
       </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
@@ -32586,19 +32598,19 @@
         <v>3</v>
       </c>
       <c r="E1091">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1091" t="s">
         <v>10</v>
       </c>
       <c r="G1091" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H1091">
-        <v>0.103949</v>
+        <v>0.27418500000000001</v>
       </c>
       <c r="I1091" s="1">
-        <v>6.6799999999999997E-4</v>
+        <v>2.2330000000000002E-3</v>
       </c>
     </row>
     <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
@@ -32615,19 +32627,19 @@
         <v>3</v>
       </c>
       <c r="E1092">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1092" t="s">
         <v>10</v>
       </c>
       <c r="G1092" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H1092">
-        <v>0.27418500000000001</v>
+        <v>7.8548000000000007E-2</v>
       </c>
       <c r="I1092" s="1">
-        <v>2.2330000000000002E-3</v>
+        <v>3.4400000000000001E-4</v>
       </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
@@ -32644,7 +32656,7 @@
         <v>3</v>
       </c>
       <c r="E1093">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1093" t="s">
         <v>10</v>
@@ -32653,10 +32665,10 @@
         <v>13</v>
       </c>
       <c r="H1093">
-        <v>7.8548000000000007E-2</v>
+        <v>4.6561999999999999E-2</v>
       </c>
       <c r="I1093" s="1">
-        <v>3.4400000000000001E-4</v>
+        <v>1.3999999999999999E-4</v>
       </c>
     </row>
     <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
@@ -32673,47 +32685,18 @@
         <v>3</v>
       </c>
       <c r="E1094">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1094" t="s">
         <v>10</v>
       </c>
       <c r="G1094" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H1094">
-        <v>4.6561999999999999E-2</v>
+        <v>55.099271999999999</v>
       </c>
       <c r="I1094" s="1">
-        <v>1.3999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1095">
-        <v>2015</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1095">
-        <v>27</v>
-      </c>
-      <c r="D1095">
-        <v>3</v>
-      </c>
-      <c r="E1095">
-        <v>130</v>
-      </c>
-      <c r="F1095" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1095" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1095">
-        <v>55.099271999999999</v>
-      </c>
-      <c r="I1095" s="1">
         <v>15.439916</v>
       </c>
     </row>
